--- a/Data/industry_2022.xlsx
+++ b/Data/industry_2022.xlsx
@@ -12,6 +12,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-01-26" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-01-27" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-01-28" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-01-31" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -44996,4 +44997,7429 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M145"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Perf Week</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Perf Month</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Perf Quart</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Perf Half</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Perf Year</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>Perf YTD</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Recom</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="inlineStr">
+        <is>
+          <t>Avg Volume</t>
+        </is>
+      </c>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Rel Volume</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="inlineStr">
+        <is>
+          <t>Change</t>
+        </is>
+      </c>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Volume</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Oil &amp; Gas Equipment &amp; Services</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4.72</v>
+      </c>
+      <c r="D2" t="n">
+        <v>23.12</v>
+      </c>
+      <c r="E2" t="n">
+        <v>12.04</v>
+      </c>
+      <c r="F2" t="n">
+        <v>27.38</v>
+      </c>
+      <c r="G2" t="n">
+        <v>46.97</v>
+      </c>
+      <c r="H2" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>73.56M</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="L2" t="n">
+        <v>-0.6899999999999999</v>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>83.38M</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Oil &amp; Gas E&amp;P</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6.13</v>
+      </c>
+      <c r="D3" t="n">
+        <v>18.38</v>
+      </c>
+      <c r="E3" t="n">
+        <v>13.81</v>
+      </c>
+      <c r="F3" t="n">
+        <v>51.3</v>
+      </c>
+      <c r="G3" t="n">
+        <v>106.07</v>
+      </c>
+      <c r="H3" t="n">
+        <v>18.33</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>257.32M</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="L3" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>257.96M</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Oil &amp; Gas Integrated</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="D4" t="n">
+        <v>15.84</v>
+      </c>
+      <c r="E4" t="n">
+        <v>13.25</v>
+      </c>
+      <c r="F4" t="n">
+        <v>28.74</v>
+      </c>
+      <c r="G4" t="n">
+        <v>48.27</v>
+      </c>
+      <c r="H4" t="n">
+        <v>16.02</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>126.97M</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>139.29M</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Oil &amp; Gas Drilling</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="D5" t="n">
+        <v>14.51</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="F5" t="n">
+        <v>15.57</v>
+      </c>
+      <c r="G5" t="n">
+        <v>35.94</v>
+      </c>
+      <c r="H5" t="n">
+        <v>15.28</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>21.09M</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
+        <v>-0.35</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>20.22M</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Oil &amp; Gas Refining &amp; Marketing</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="D6" t="n">
+        <v>11.16</v>
+      </c>
+      <c r="E6" t="n">
+        <v>6.92</v>
+      </c>
+      <c r="F6" t="n">
+        <v>16.17</v>
+      </c>
+      <c r="G6" t="n">
+        <v>31.51</v>
+      </c>
+      <c r="H6" t="n">
+        <v>10.54</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>33.95M</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>35.53M</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Oil &amp; Gas Midstream</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="D7" t="n">
+        <v>10.36</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="F7" t="n">
+        <v>10.47</v>
+      </c>
+      <c r="G7" t="n">
+        <v>32.6</v>
+      </c>
+      <c r="H7" t="n">
+        <v>9.34</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>108.34M</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>126.61M</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Tobacco</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="D8" t="n">
+        <v>9.720000000000001</v>
+      </c>
+      <c r="E8" t="n">
+        <v>13.03</v>
+      </c>
+      <c r="F8" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="G8" t="n">
+        <v>13.29</v>
+      </c>
+      <c r="H8" t="n">
+        <v>9.24</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>35.49M</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>31.35M</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Marine Shipping</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>9.720000000000001</v>
+      </c>
+      <c r="D9" t="n">
+        <v>8.779999999999999</v>
+      </c>
+      <c r="E9" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="F9" t="n">
+        <v>21.87</v>
+      </c>
+      <c r="G9" t="n">
+        <v>74.37</v>
+      </c>
+      <c r="H9" t="n">
+        <v>6.57</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>28.40M</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>29.26M</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Farm Products</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="D10" t="n">
+        <v>7.24</v>
+      </c>
+      <c r="E10" t="n">
+        <v>9.630000000000001</v>
+      </c>
+      <c r="F10" t="n">
+        <v>18.43</v>
+      </c>
+      <c r="G10" t="n">
+        <v>28.47</v>
+      </c>
+      <c r="H10" t="n">
+        <v>6.11</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>13.80M</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>-0.39</v>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>18.34M</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Other Industrial Metals &amp; Mining</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>-1.73</v>
+      </c>
+      <c r="D11" t="n">
+        <v>5.62</v>
+      </c>
+      <c r="E11" t="n">
+        <v>15.04</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-14.31</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-0.77</v>
+      </c>
+      <c r="H11" t="n">
+        <v>5.43</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>81.67M</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>-1.3</v>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>85.62M</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Insurance - Life</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="D12" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2</v>
+      </c>
+      <c r="F12" t="n">
+        <v>7.71</v>
+      </c>
+      <c r="G12" t="n">
+        <v>10.77</v>
+      </c>
+      <c r="H12" t="n">
+        <v>5.71</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>24.13M</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>30.97M</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Banks - Regional</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="D13" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="F13" t="n">
+        <v>9.619999999999999</v>
+      </c>
+      <c r="G13" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="H13" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>243.82M</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>362.22M</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Thermal Coal</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="D14" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-0.93</v>
+      </c>
+      <c r="F14" t="n">
+        <v>26.51</v>
+      </c>
+      <c r="G14" t="n">
+        <v>116.11</v>
+      </c>
+      <c r="H14" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>7.95M</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
+        <v>-3.32</v>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>9.86M</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Department Stores</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>-4.21</v>
+      </c>
+      <c r="D15" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="E15" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="F15" t="n">
+        <v>14.34</v>
+      </c>
+      <c r="G15" t="n">
+        <v>37.58</v>
+      </c>
+      <c r="H15" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>30.24M</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>20.41M</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Insurance - Diversified</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="D16" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="E16" t="n">
+        <v>7.84</v>
+      </c>
+      <c r="F16" t="n">
+        <v>12.59</v>
+      </c>
+      <c r="G16" t="n">
+        <v>36.29</v>
+      </c>
+      <c r="H16" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>23.97M</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>29.73M</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Banks - Diversified</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="D17" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="E17" t="n">
+        <v>-1.63</v>
+      </c>
+      <c r="F17" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="G17" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="H17" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>161.85M</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>166.99M</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Airlines</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="D18" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="E18" t="n">
+        <v>-1.94</v>
+      </c>
+      <c r="F18" t="n">
+        <v>-2.85</v>
+      </c>
+      <c r="G18" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="H18" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>99.24M</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>95.74M</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Beverages - Brewers</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>-1.62</v>
+      </c>
+      <c r="D19" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-5.9</v>
+      </c>
+      <c r="G19" t="n">
+        <v>-2.87</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>31.23M</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>21.01M</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Confectioners</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>-1.02</v>
+      </c>
+      <c r="D20" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="E20" t="n">
+        <v>10.88</v>
+      </c>
+      <c r="F20" t="n">
+        <v>6.85</v>
+      </c>
+      <c r="G20" t="n">
+        <v>24.63</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>8.67M</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>10.55M</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Insurance - Property &amp; Casualty</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="D21" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="E21" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="F21" t="n">
+        <v>6.81</v>
+      </c>
+      <c r="G21" t="n">
+        <v>19.53</v>
+      </c>
+      <c r="H21" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>26.80M</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>29.92M</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Farm &amp; Heavy Construction Machinery</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>-1.09</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="E22" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="G22" t="n">
+        <v>12.83</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>19.74M</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>23.34M</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Paper &amp; Paper Products</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="E23" t="n">
+        <v>17.89</v>
+      </c>
+      <c r="F23" t="n">
+        <v>5.83</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-1.22</v>
+      </c>
+      <c r="H23" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>6.40M</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>5.06M</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Coking Coal</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="E24" t="n">
+        <v>-5.83</v>
+      </c>
+      <c r="F24" t="n">
+        <v>45.6</v>
+      </c>
+      <c r="G24" t="n">
+        <v>74.08</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>3.10M</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>-0.97</v>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>1.78M</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Packaging &amp; Containers</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="F25" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="G25" t="n">
+        <v>10.04</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>25.55M</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>48.92M</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Conglomerates</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="E26" t="n">
+        <v>-5.95</v>
+      </c>
+      <c r="F26" t="n">
+        <v>-4.62</v>
+      </c>
+      <c r="G26" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="H26" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>4.82M</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>2.07M</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Credit Services</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>8.24</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="E27" t="n">
+        <v>-1.98</v>
+      </c>
+      <c r="F27" t="n">
+        <v>-9.630000000000001</v>
+      </c>
+      <c r="G27" t="n">
+        <v>7.29</v>
+      </c>
+      <c r="H27" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>152.56M</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>191.54M</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="3" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Utilities - Diversified</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="E28" t="n">
+        <v>6.91</v>
+      </c>
+      <c r="F28" t="n">
+        <v>9.19</v>
+      </c>
+      <c r="G28" t="n">
+        <v>17.32</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>37.50M</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>59.43M</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="3" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Beverages - Non-Alcoholic</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="E29" t="n">
+        <v>5.79</v>
+      </c>
+      <c r="F29" t="n">
+        <v>5.46</v>
+      </c>
+      <c r="G29" t="n">
+        <v>20.26</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>44.34M</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>46.51M</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="3" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Medical Distribution</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="E30" t="n">
+        <v>12.63</v>
+      </c>
+      <c r="F30" t="n">
+        <v>7.92</v>
+      </c>
+      <c r="G30" t="n">
+        <v>23.86</v>
+      </c>
+      <c r="H30" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>7.71M</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>-0.82</v>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>11.38M</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="3" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Utilities - Regulated Gas</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="E31" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="F31" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="G31" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>14.73M</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>25.67M</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Insurance - Reinsurance</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>-0.66</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E32" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="F32" t="n">
+        <v>4.96</v>
+      </c>
+      <c r="G32" t="n">
+        <v>14.29</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>2.11M</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>2.22M</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="3" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Shell Companies</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="D33" t="n">
+        <v>-0.13</v>
+      </c>
+      <c r="E33" t="n">
+        <v>-2.2</v>
+      </c>
+      <c r="F33" t="n">
+        <v>2</v>
+      </c>
+      <c r="G33" t="n">
+        <v>-13.26</v>
+      </c>
+      <c r="H33" t="n">
+        <v>-0.11</v>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>57.46M</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>30.92M</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>REIT - Healthcare Facilities</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="D34" t="n">
+        <v>-0.14</v>
+      </c>
+      <c r="E34" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="F34" t="n">
+        <v>-3.15</v>
+      </c>
+      <c r="G34" t="n">
+        <v>11.81</v>
+      </c>
+      <c r="H34" t="n">
+        <v>-0.03</v>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>28.92M</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>50.53M</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="3" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Aerospace &amp; Defense</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>-0.77</v>
+      </c>
+      <c r="D35" t="n">
+        <v>-0.16</v>
+      </c>
+      <c r="E35" t="n">
+        <v>-1.52</v>
+      </c>
+      <c r="F35" t="n">
+        <v>-4.18</v>
+      </c>
+      <c r="G35" t="n">
+        <v>12.17</v>
+      </c>
+      <c r="H35" t="n">
+        <v>-0.28</v>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>77.25M</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>85.92M</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="3" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Packaged Foods</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>-0.79</v>
+      </c>
+      <c r="D36" t="n">
+        <v>-0.48</v>
+      </c>
+      <c r="E36" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="F36" t="n">
+        <v>-0.82</v>
+      </c>
+      <c r="G36" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="H36" t="n">
+        <v>-1.01</v>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>114.63M</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>165.50M</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="3" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>REIT - Mortgage</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="D37" t="n">
+        <v>-0.54</v>
+      </c>
+      <c r="E37" t="n">
+        <v>-6.51</v>
+      </c>
+      <c r="F37" t="n">
+        <v>-4.26</v>
+      </c>
+      <c r="G37" t="n">
+        <v>7.46</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>74.71M</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>80.96M</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="3" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Broadcasting</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="D38" t="n">
+        <v>-0.83</v>
+      </c>
+      <c r="E38" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="F38" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="G38" t="n">
+        <v>16.21</v>
+      </c>
+      <c r="H38" t="n">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>49.72M</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>75.35M</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="3" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Telecom Services</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="D39" t="n">
+        <v>-1.11</v>
+      </c>
+      <c r="E39" t="n">
+        <v>-2.12</v>
+      </c>
+      <c r="F39" t="n">
+        <v>-10.73</v>
+      </c>
+      <c r="G39" t="n">
+        <v>-6.4</v>
+      </c>
+      <c r="H39" t="n">
+        <v>-0.47</v>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>162.29M</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>203.79M</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="3" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Capital Markets</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="D40" t="n">
+        <v>-1.31</v>
+      </c>
+      <c r="E40" t="n">
+        <v>-4.01</v>
+      </c>
+      <c r="F40" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="G40" t="n">
+        <v>28.54</v>
+      </c>
+      <c r="H40" t="n">
+        <v>-0.78</v>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>103.66M</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>94.27M</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="3" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Travel Services</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="D41" t="n">
+        <v>-1.88</v>
+      </c>
+      <c r="E41" t="n">
+        <v>-4.62</v>
+      </c>
+      <c r="F41" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="G41" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="H41" t="n">
+        <v>-1.14</v>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>90.66M</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>93.04M</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="3" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Food Distribution</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="D42" t="n">
+        <v>-2.01</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F42" t="n">
+        <v>6.42</v>
+      </c>
+      <c r="G42" t="n">
+        <v>8.65</v>
+      </c>
+      <c r="H42" t="n">
+        <v>-2.5</v>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>7.56M</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>7.96M</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="3" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Chemicals</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="D43" t="n">
+        <v>-2.5</v>
+      </c>
+      <c r="E43" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="F43" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="G43" t="n">
+        <v>11.39</v>
+      </c>
+      <c r="H43" t="n">
+        <v>-2.98</v>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>28.71M</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>29.43M</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="3" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Consumer Electronics</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>7.71</v>
+      </c>
+      <c r="D44" t="n">
+        <v>-2.52</v>
+      </c>
+      <c r="E44" t="n">
+        <v>15.25</v>
+      </c>
+      <c r="F44" t="n">
+        <v>19</v>
+      </c>
+      <c r="G44" t="n">
+        <v>28.79</v>
+      </c>
+      <c r="H44" t="n">
+        <v>-2.21</v>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>112.61M</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>129.03M</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="3" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Drug Manufacturers - General</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="D45" t="n">
+        <v>-2.63</v>
+      </c>
+      <c r="E45" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="F45" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="G45" t="n">
+        <v>14.17</v>
+      </c>
+      <c r="H45" t="n">
+        <v>-2.43</v>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>124.64M</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>-0.24</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>124.97M</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="3" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>REIT - Hotel &amp; Motel</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="D46" t="n">
+        <v>-2.66</v>
+      </c>
+      <c r="E46" t="n">
+        <v>-1.58</v>
+      </c>
+      <c r="F46" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="G46" t="n">
+        <v>15.58</v>
+      </c>
+      <c r="H46" t="n">
+        <v>-2.35</v>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>29.37M</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>27.80M</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="3" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Gold</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>-2.11</v>
+      </c>
+      <c r="D47" t="n">
+        <v>-3.01</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F47" t="n">
+        <v>-10.57</v>
+      </c>
+      <c r="G47" t="n">
+        <v>-9.91</v>
+      </c>
+      <c r="H47" t="n">
+        <v>-3.72</v>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>141.02M</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>135.16M</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="3" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Agricultural Inputs</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="D48" t="n">
+        <v>-3.14</v>
+      </c>
+      <c r="E48" t="n">
+        <v>5.47</v>
+      </c>
+      <c r="F48" t="n">
+        <v>16.46</v>
+      </c>
+      <c r="G48" t="n">
+        <v>25.19</v>
+      </c>
+      <c r="H48" t="n">
+        <v>-3.5</v>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>18.00M</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>14.66M</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="3" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Utilities - Regulated Electric</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="D49" t="n">
+        <v>-3.3</v>
+      </c>
+      <c r="E49" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="F49" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="G49" t="n">
+        <v>7.57</v>
+      </c>
+      <c r="H49" t="n">
+        <v>-3.62</v>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>63.90M</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>102.95M</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="3" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Railroads</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>-0.82</v>
+      </c>
+      <c r="D50" t="n">
+        <v>-3.39</v>
+      </c>
+      <c r="E50" t="n">
+        <v>-4.27</v>
+      </c>
+      <c r="F50" t="n">
+        <v>8.18</v>
+      </c>
+      <c r="G50" t="n">
+        <v>17.07</v>
+      </c>
+      <c r="H50" t="n">
+        <v>-4.2</v>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>26.14M</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>-0.11</v>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>26.27M</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="3" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Copper</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>-3.76</v>
+      </c>
+      <c r="D51" t="n">
+        <v>-3.57</v>
+      </c>
+      <c r="E51" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="G51" t="n">
+        <v>11.08</v>
+      </c>
+      <c r="H51" t="n">
+        <v>-4.07</v>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>21.57M</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>22.41M</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Lodging</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="D52" t="n">
+        <v>-3.58</v>
+      </c>
+      <c r="E52" t="n">
+        <v>-1.53</v>
+      </c>
+      <c r="F52" t="n">
+        <v>8.460000000000001</v>
+      </c>
+      <c r="G52" t="n">
+        <v>25.94</v>
+      </c>
+      <c r="H52" t="n">
+        <v>-4.02</v>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>8.44M</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>7.55M</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="3" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Resorts &amp; Casinos</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>0</v>
+      </c>
+      <c r="D53" t="n">
+        <v>-4.32</v>
+      </c>
+      <c r="E53" t="n">
+        <v>-10.29</v>
+      </c>
+      <c r="F53" t="n">
+        <v>-2.37</v>
+      </c>
+      <c r="G53" t="n">
+        <v>-1.16</v>
+      </c>
+      <c r="H53" t="n">
+        <v>-4.5</v>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>36.87M</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>33.24M</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="3" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Insurance - Specialty</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="D54" t="n">
+        <v>-4.38</v>
+      </c>
+      <c r="E54" t="n">
+        <v>-3.85</v>
+      </c>
+      <c r="F54" t="n">
+        <v>-1.17</v>
+      </c>
+      <c r="G54" t="n">
+        <v>11.31</v>
+      </c>
+      <c r="H54" t="n">
+        <v>-5.12</v>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>13.68M</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>13.85M</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="3" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Real Estate - Diversified</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="D55" t="n">
+        <v>-4.52</v>
+      </c>
+      <c r="E55" t="n">
+        <v>7.34</v>
+      </c>
+      <c r="F55" t="n">
+        <v>6.38</v>
+      </c>
+      <c r="G55" t="n">
+        <v>5.62</v>
+      </c>
+      <c r="H55" t="n">
+        <v>-5.79</v>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>1.40M</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>5.24</v>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>987.52K</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="3" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Advertising Agencies</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="D56" t="n">
+        <v>-4.55</v>
+      </c>
+      <c r="E56" t="n">
+        <v>-6.49</v>
+      </c>
+      <c r="F56" t="n">
+        <v>-5.32</v>
+      </c>
+      <c r="G56" t="n">
+        <v>8.619999999999999</v>
+      </c>
+      <c r="H56" t="n">
+        <v>-4.29</v>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>36.59M</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>27.45M</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="3" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Real Estate - Development</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="D57" t="n">
+        <v>-4.63</v>
+      </c>
+      <c r="E57" t="n">
+        <v>-9.550000000000001</v>
+      </c>
+      <c r="F57" t="n">
+        <v>-13.28</v>
+      </c>
+      <c r="G57" t="n">
+        <v>-17.79</v>
+      </c>
+      <c r="H57" t="n">
+        <v>-4.37</v>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>6.30M</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>3.42M</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="3" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Lumber &amp; Wood Production</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="D58" t="n">
+        <v>-4.65</v>
+      </c>
+      <c r="E58" t="n">
+        <v>10.58</v>
+      </c>
+      <c r="F58" t="n">
+        <v>27.31</v>
+      </c>
+      <c r="G58" t="n">
+        <v>40.18</v>
+      </c>
+      <c r="H58" t="n">
+        <v>-4.68</v>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>1.01M</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>1.44M</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="3" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Household &amp; Personal Products</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>-0.88</v>
+      </c>
+      <c r="D59" t="n">
+        <v>-4.65</v>
+      </c>
+      <c r="E59" t="n">
+        <v>4.62</v>
+      </c>
+      <c r="F59" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="G59" t="n">
+        <v>10.42</v>
+      </c>
+      <c r="H59" t="n">
+        <v>-5.26</v>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>51.06M</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>113.57M</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="3" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Pharmaceutical Retailers</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>-4.71</v>
+      </c>
+      <c r="D60" t="n">
+        <v>-4.71</v>
+      </c>
+      <c r="E60" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="F60" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="G60" t="n">
+        <v>-2.99</v>
+      </c>
+      <c r="H60" t="n">
+        <v>-4.95</v>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>16.55M</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>-1.24</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>15.69M</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="3" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Aluminum</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>-5.18</v>
+      </c>
+      <c r="D61" t="n">
+        <v>-4.74</v>
+      </c>
+      <c r="E61" t="n">
+        <v>-0.72</v>
+      </c>
+      <c r="F61" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="G61" t="n">
+        <v>84.08</v>
+      </c>
+      <c r="H61" t="n">
+        <v>-5.11</v>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>10.34M</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>9.64M</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="3" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Business Equipment &amp; Supplies</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="D62" t="n">
+        <v>-4.95</v>
+      </c>
+      <c r="E62" t="n">
+        <v>-4.5</v>
+      </c>
+      <c r="F62" t="n">
+        <v>-1.5</v>
+      </c>
+      <c r="G62" t="n">
+        <v>25.31</v>
+      </c>
+      <c r="H62" t="n">
+        <v>-5.52</v>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>4.28M</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>5.21M</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="3" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Healthcare Plans</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="D63" t="n">
+        <v>-5.36</v>
+      </c>
+      <c r="E63" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="F63" t="n">
+        <v>10.49</v>
+      </c>
+      <c r="G63" t="n">
+        <v>31.37</v>
+      </c>
+      <c r="H63" t="n">
+        <v>-4.8</v>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>47.60M</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>42.49M</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="3" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>REIT - Retail</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="D64" t="n">
+        <v>-5.42</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="F64" t="n">
+        <v>6.87</v>
+      </c>
+      <c r="G64" t="n">
+        <v>35.55</v>
+      </c>
+      <c r="H64" t="n">
+        <v>-5.33</v>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>31.08M</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>40.41M</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="3" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Asset Management</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="D65" t="n">
+        <v>-5.45</v>
+      </c>
+      <c r="E65" t="n">
+        <v>-10.77</v>
+      </c>
+      <c r="F65" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="G65" t="n">
+        <v>28.62</v>
+      </c>
+      <c r="H65" t="n">
+        <v>-5.52</v>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>89.33M</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>103.26M</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="3" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Integrated Freight &amp; Logistics</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>-1.01</v>
+      </c>
+      <c r="D66" t="n">
+        <v>-5.46</v>
+      </c>
+      <c r="E66" t="n">
+        <v>-3.35</v>
+      </c>
+      <c r="F66" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="G66" t="n">
+        <v>17.58</v>
+      </c>
+      <c r="H66" t="n">
+        <v>-5.75</v>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>15.03M</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>18.39M</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="3" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Specialty Business Services</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>2</v>
+      </c>
+      <c r="D67" t="n">
+        <v>-5.58</v>
+      </c>
+      <c r="E67" t="n">
+        <v>-8.800000000000001</v>
+      </c>
+      <c r="F67" t="n">
+        <v>-7.79</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="H67" t="n">
+        <v>-5.7</v>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>20.73M</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>23.08M</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="3" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Discount Stores</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="D68" t="n">
+        <v>-5.88</v>
+      </c>
+      <c r="E68" t="n">
+        <v>-4.47</v>
+      </c>
+      <c r="F68" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="G68" t="n">
+        <v>13.52</v>
+      </c>
+      <c r="H68" t="n">
+        <v>-6.48</v>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>25.59M</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>21.85M</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="3" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Financial Conglomerates</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="D69" t="n">
+        <v>-5.95</v>
+      </c>
+      <c r="E69" t="n">
+        <v>-9.640000000000001</v>
+      </c>
+      <c r="F69" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="G69" t="n">
+        <v>36.23</v>
+      </c>
+      <c r="H69" t="n">
+        <v>-5.59</v>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>4.12M</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>6.96M</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="3" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Tools &amp; Accessories</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>-1.86</v>
+      </c>
+      <c r="D70" t="n">
+        <v>-6.24</v>
+      </c>
+      <c r="E70" t="n">
+        <v>-5.51</v>
+      </c>
+      <c r="F70" t="n">
+        <v>-11.13</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="H70" t="n">
+        <v>-6.74</v>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>6.88M</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>7.12M</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="3" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Publishing</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="D71" t="n">
+        <v>-6.3</v>
+      </c>
+      <c r="E71" t="n">
+        <v>-4.23</v>
+      </c>
+      <c r="F71" t="n">
+        <v>-1.19</v>
+      </c>
+      <c r="G71" t="n">
+        <v>11.46</v>
+      </c>
+      <c r="H71" t="n">
+        <v>-6.66</v>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>4.58M</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>5.08M</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="3" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Textile Manufacturing</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>-2.47</v>
+      </c>
+      <c r="D72" t="n">
+        <v>-6.34</v>
+      </c>
+      <c r="E72" t="n">
+        <v>-1.55</v>
+      </c>
+      <c r="F72" t="n">
+        <v>-5</v>
+      </c>
+      <c r="G72" t="n">
+        <v>7.63</v>
+      </c>
+      <c r="H72" t="n">
+        <v>-7.42</v>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>330.04K</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>373.77K</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="3" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Specialty Industrial Machinery</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>-1.77</v>
+      </c>
+      <c r="D73" t="n">
+        <v>-6.37</v>
+      </c>
+      <c r="E73" t="n">
+        <v>-5.74</v>
+      </c>
+      <c r="F73" t="n">
+        <v>-7.11</v>
+      </c>
+      <c r="G73" t="n">
+        <v>11.35</v>
+      </c>
+      <c r="H73" t="n">
+        <v>-6.74</v>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>66.56M</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>90.13M</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="3" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Electronics &amp; Computer Distribution</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>-0.53</v>
+      </c>
+      <c r="D74" t="n">
+        <v>-6.45</v>
+      </c>
+      <c r="E74" t="n">
+        <v>6.34</v>
+      </c>
+      <c r="F74" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="G74" t="n">
+        <v>16.78</v>
+      </c>
+      <c r="H74" t="n">
+        <v>-6.31</v>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>1.78M</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>2.21M</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="3" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>REIT - Residential</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="D75" t="n">
+        <v>-6.64</v>
+      </c>
+      <c r="E75" t="n">
+        <v>-0.03</v>
+      </c>
+      <c r="F75" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="G75" t="n">
+        <v>40.19</v>
+      </c>
+      <c r="H75" t="n">
+        <v>-6.91</v>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>20.05M</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>22.23M</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="3" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Beverages - Wineries &amp; Distilleries</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D76" t="n">
+        <v>-6.64</v>
+      </c>
+      <c r="E76" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="F76" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="G76" t="n">
+        <v>15.08</v>
+      </c>
+      <c r="H76" t="n">
+        <v>-7.09</v>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>4.34M</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>3.74M</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="3" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>REIT - Diversified</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="D77" t="n">
+        <v>-6.87</v>
+      </c>
+      <c r="E77" t="n">
+        <v>-3.13</v>
+      </c>
+      <c r="F77" t="n">
+        <v>-3.76</v>
+      </c>
+      <c r="G77" t="n">
+        <v>16.64</v>
+      </c>
+      <c r="H77" t="n">
+        <v>-7.22</v>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>26.89M</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>31.59M</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="3" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Electronic Components</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="D78" t="n">
+        <v>-6.91</v>
+      </c>
+      <c r="E78" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="F78" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="G78" t="n">
+        <v>16.44</v>
+      </c>
+      <c r="H78" t="n">
+        <v>-7.15</v>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>34.04M</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>38.88M</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="3" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Steel</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="D79" t="n">
+        <v>-6.91</v>
+      </c>
+      <c r="E79" t="n">
+        <v>-9.67</v>
+      </c>
+      <c r="F79" t="n">
+        <v>-14.8</v>
+      </c>
+      <c r="G79" t="n">
+        <v>32.39</v>
+      </c>
+      <c r="H79" t="n">
+        <v>-7.57</v>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>65.04M</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>71.68M</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="3" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Metal Fabrication</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>-3.4</v>
+      </c>
+      <c r="D80" t="n">
+        <v>-7.02</v>
+      </c>
+      <c r="E80" t="n">
+        <v>-5.82</v>
+      </c>
+      <c r="F80" t="n">
+        <v>-9.119999999999999</v>
+      </c>
+      <c r="G80" t="n">
+        <v>-12.68</v>
+      </c>
+      <c r="H80" t="n">
+        <v>-7.56</v>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>6.74M</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>7.90M</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="3" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Security &amp; Protection Services</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="D81" t="n">
+        <v>-7.33</v>
+      </c>
+      <c r="E81" t="n">
+        <v>-6.72</v>
+      </c>
+      <c r="F81" t="n">
+        <v>-16.21</v>
+      </c>
+      <c r="G81" t="n">
+        <v>-9.029999999999999</v>
+      </c>
+      <c r="H81" t="n">
+        <v>-7.69</v>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>18.17M</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>11.20M</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="3" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Computer Hardware</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="D82" t="n">
+        <v>-7.45</v>
+      </c>
+      <c r="E82" t="n">
+        <v>4.31</v>
+      </c>
+      <c r="F82" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="G82" t="n">
+        <v>15.37</v>
+      </c>
+      <c r="H82" t="n">
+        <v>-7.18</v>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>71.10M</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>68.52M</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="3" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Luxury Goods</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="D83" t="n">
+        <v>-7.91</v>
+      </c>
+      <c r="E83" t="n">
+        <v>-5.7</v>
+      </c>
+      <c r="F83" t="n">
+        <v>-7.19</v>
+      </c>
+      <c r="G83" t="n">
+        <v>17.15</v>
+      </c>
+      <c r="H83" t="n">
+        <v>-7.97</v>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>6.98M</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>5.10M</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="3" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Personal Services</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>-0.73</v>
+      </c>
+      <c r="D84" t="n">
+        <v>-7.92</v>
+      </c>
+      <c r="E84" t="n">
+        <v>-12.18</v>
+      </c>
+      <c r="F84" t="n">
+        <v>-18.39</v>
+      </c>
+      <c r="G84" t="n">
+        <v>-13.16</v>
+      </c>
+      <c r="H84" t="n">
+        <v>-8.34</v>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>17.81M</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>21.18M</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="3" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Insurance Brokers</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>-0.12</v>
+      </c>
+      <c r="D85" t="n">
+        <v>-8.18</v>
+      </c>
+      <c r="E85" t="n">
+        <v>-8.81</v>
+      </c>
+      <c r="F85" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="G85" t="n">
+        <v>25.55</v>
+      </c>
+      <c r="H85" t="n">
+        <v>-8.41</v>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>20.17M</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>20.34M</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="3" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Airports &amp; Air Services</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="D86" t="n">
+        <v>-8.19</v>
+      </c>
+      <c r="E86" t="n">
+        <v>-6</v>
+      </c>
+      <c r="F86" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="G86" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="H86" t="n">
+        <v>-8.41</v>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>11.21M</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>4</v>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>16.10M</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="3" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>REIT - Industrial</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="D87" t="n">
+        <v>-8.24</v>
+      </c>
+      <c r="E87" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="F87" t="n">
+        <v>14.22</v>
+      </c>
+      <c r="G87" t="n">
+        <v>45.3</v>
+      </c>
+      <c r="H87" t="n">
+        <v>-8.609999999999999</v>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>17.47M</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>18.93M</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="3" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Internet Content &amp; Information</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="D88" t="n">
+        <v>-8.31</v>
+      </c>
+      <c r="E88" t="n">
+        <v>-10.04</v>
+      </c>
+      <c r="F88" t="n">
+        <v>-6.89</v>
+      </c>
+      <c r="G88" t="n">
+        <v>21.03</v>
+      </c>
+      <c r="H88" t="n">
+        <v>-7.17</v>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>177.54M</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>194.58M</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="3" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Auto &amp; Truck Dealerships</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>-2.2</v>
+      </c>
+      <c r="D89" t="n">
+        <v>-8.35</v>
+      </c>
+      <c r="E89" t="n">
+        <v>-13.4</v>
+      </c>
+      <c r="F89" t="n">
+        <v>-16.34</v>
+      </c>
+      <c r="G89" t="n">
+        <v>-1.52</v>
+      </c>
+      <c r="H89" t="n">
+        <v>-9.06</v>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>14.79M</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>11.33M</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="3" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Other Precious Metals &amp; Mining</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>-9.24</v>
+      </c>
+      <c r="D90" t="n">
+        <v>-8.4</v>
+      </c>
+      <c r="E90" t="n">
+        <v>-17.14</v>
+      </c>
+      <c r="F90" t="n">
+        <v>-23.02</v>
+      </c>
+      <c r="G90" t="n">
+        <v>-39.35</v>
+      </c>
+      <c r="H90" t="n">
+        <v>-9.119999999999999</v>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>8.99M</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>9.12M</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="3" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Grocery Stores</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>-4.73</v>
+      </c>
+      <c r="D91" t="n">
+        <v>-8.43</v>
+      </c>
+      <c r="E91" t="n">
+        <v>-4.07</v>
+      </c>
+      <c r="F91" t="n">
+        <v>-2.03</v>
+      </c>
+      <c r="G91" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="H91" t="n">
+        <v>-9.02</v>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>18.06M</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>15.05M</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="3" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Restaurants</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="D92" t="n">
+        <v>-8.720000000000001</v>
+      </c>
+      <c r="E92" t="n">
+        <v>-4.24</v>
+      </c>
+      <c r="F92" t="n">
+        <v>-7.66</v>
+      </c>
+      <c r="G92" t="n">
+        <v>8.68</v>
+      </c>
+      <c r="H92" t="n">
+        <v>-9</v>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>54.25M</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>43.03M</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="3" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Waste Management</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="D93" t="n">
+        <v>-9.029999999999999</v>
+      </c>
+      <c r="E93" t="n">
+        <v>-9.119999999999999</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="G93" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="H93" t="n">
+        <v>-9.65</v>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>12.54M</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>10.24M</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="3" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Building Materials</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="D94" t="n">
+        <v>-9.109999999999999</v>
+      </c>
+      <c r="E94" t="n">
+        <v>-1.45</v>
+      </c>
+      <c r="F94" t="n">
+        <v>-0.11</v>
+      </c>
+      <c r="G94" t="n">
+        <v>21.37</v>
+      </c>
+      <c r="H94" t="n">
+        <v>-9.34</v>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>15.25M</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>11.54M</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="3" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Communication Equipment</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="D95" t="n">
+        <v>-9.19</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="G95" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="H95" t="n">
+        <v>-8.859999999999999</v>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>107.83M</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>126.02M</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="3" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Information Technology Services</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="D96" t="n">
+        <v>-9.220000000000001</v>
+      </c>
+      <c r="E96" t="n">
+        <v>-3.39</v>
+      </c>
+      <c r="F96" t="n">
+        <v>-2.95</v>
+      </c>
+      <c r="G96" t="n">
+        <v>11.52</v>
+      </c>
+      <c r="H96" t="n">
+        <v>-9.029999999999999</v>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>130.69M</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>99.48M</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="3" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>REIT - Office</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>-1.35</v>
+      </c>
+      <c r="D97" t="n">
+        <v>-9.300000000000001</v>
+      </c>
+      <c r="E97" t="n">
+        <v>-4.34</v>
+      </c>
+      <c r="F97" t="n">
+        <v>-5.16</v>
+      </c>
+      <c r="G97" t="n">
+        <v>7.56</v>
+      </c>
+      <c r="H97" t="n">
+        <v>-9.1</v>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>20.84M</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>28.23M</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="3" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Financial Data &amp; Stock Exchanges</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="D98" t="n">
+        <v>-9.32</v>
+      </c>
+      <c r="E98" t="n">
+        <v>-9.720000000000001</v>
+      </c>
+      <c r="F98" t="n">
+        <v>-0.8</v>
+      </c>
+      <c r="G98" t="n">
+        <v>24.45</v>
+      </c>
+      <c r="H98" t="n">
+        <v>-9.42</v>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>8.09M</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>10.25M</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="3" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Rental &amp; Leasing Services</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="D99" t="n">
+        <v>-9.359999999999999</v>
+      </c>
+      <c r="E99" t="n">
+        <v>-13.59</v>
+      </c>
+      <c r="F99" t="n">
+        <v>6.71</v>
+      </c>
+      <c r="G99" t="n">
+        <v>25.79</v>
+      </c>
+      <c r="H99" t="n">
+        <v>-10.14</v>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>20.52M</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>21.69M</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="3" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Auto Parts</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>-1.41</v>
+      </c>
+      <c r="D100" t="n">
+        <v>-9.6</v>
+      </c>
+      <c r="E100" t="n">
+        <v>-10.75</v>
+      </c>
+      <c r="F100" t="n">
+        <v>-10.84</v>
+      </c>
+      <c r="G100" t="n">
+        <v>-6.69</v>
+      </c>
+      <c r="H100" t="n">
+        <v>-9.970000000000001</v>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>53.79M</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>71.07M</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="3" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Apparel Manufacturing</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>-0.68</v>
+      </c>
+      <c r="D101" t="n">
+        <v>-9.630000000000001</v>
+      </c>
+      <c r="E101" t="n">
+        <v>-10.34</v>
+      </c>
+      <c r="F101" t="n">
+        <v>-13.7</v>
+      </c>
+      <c r="G101" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="H101" t="n">
+        <v>-9.789999999999999</v>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>29.19M</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>31.19M</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="3" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Real Estate Services</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="D102" t="n">
+        <v>-9.630000000000001</v>
+      </c>
+      <c r="E102" t="n">
+        <v>-13.33</v>
+      </c>
+      <c r="F102" t="n">
+        <v>-8.949999999999999</v>
+      </c>
+      <c r="G102" t="n">
+        <v>-26.08</v>
+      </c>
+      <c r="H102" t="n">
+        <v>-9.130000000000001</v>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>46.24M</t>
+        </is>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>43.92M</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="3" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Mortgage Finance</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>-1.41</v>
+      </c>
+      <c r="D103" t="n">
+        <v>-9.76</v>
+      </c>
+      <c r="E103" t="n">
+        <v>-16.18</v>
+      </c>
+      <c r="F103" t="n">
+        <v>-21.06</v>
+      </c>
+      <c r="G103" t="n">
+        <v>-31.85</v>
+      </c>
+      <c r="H103" t="n">
+        <v>-7.72</v>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>15.06M</t>
+        </is>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>16.30M</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="3" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Drug Manufacturers - Specialty &amp; Generic</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="D104" t="n">
+        <v>-9.800000000000001</v>
+      </c>
+      <c r="E104" t="n">
+        <v>-9.9</v>
+      </c>
+      <c r="F104" t="n">
+        <v>-14.9</v>
+      </c>
+      <c r="G104" t="n">
+        <v>-15.97</v>
+      </c>
+      <c r="H104" t="n">
+        <v>-9.49</v>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>319.02M</t>
+        </is>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>237.72M</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="3" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Semiconductors</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="D105" t="n">
+        <v>-9.84</v>
+      </c>
+      <c r="E105" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="F105" t="n">
+        <v>8.16</v>
+      </c>
+      <c r="G105" t="n">
+        <v>16.11</v>
+      </c>
+      <c r="H105" t="n">
+        <v>-9.630000000000001</v>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>286.94M</t>
+        </is>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>5.27</v>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>363.43M</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="3" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Home Improvement Retail</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="D106" t="n">
+        <v>-9.880000000000001</v>
+      </c>
+      <c r="E106" t="n">
+        <v>-1.2</v>
+      </c>
+      <c r="F106" t="n">
+        <v>13.82</v>
+      </c>
+      <c r="G106" t="n">
+        <v>35.95</v>
+      </c>
+      <c r="H106" t="n">
+        <v>-10.83</v>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>13.72M</t>
+        </is>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>14.69M</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="3" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Education &amp; Training Services</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="D107" t="n">
+        <v>-9.93</v>
+      </c>
+      <c r="E107" t="n">
+        <v>-26.41</v>
+      </c>
+      <c r="F107" t="n">
+        <v>-39.12</v>
+      </c>
+      <c r="G107" t="n">
+        <v>-79.09</v>
+      </c>
+      <c r="H107" t="n">
+        <v>-10.43</v>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>122.79M</t>
+        </is>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>75.10M</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="3" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Internet Retail</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="D108" t="n">
+        <v>-9.949999999999999</v>
+      </c>
+      <c r="E108" t="n">
+        <v>-17.09</v>
+      </c>
+      <c r="F108" t="n">
+        <v>-20.07</v>
+      </c>
+      <c r="G108" t="n">
+        <v>-29.39</v>
+      </c>
+      <c r="H108" t="n">
+        <v>-8.67</v>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>161.37M</t>
+        </is>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>164.67M</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="3" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Specialty Retail</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="D109" t="n">
+        <v>-9.99</v>
+      </c>
+      <c r="E109" t="n">
+        <v>-10.77</v>
+      </c>
+      <c r="F109" t="n">
+        <v>-6.28</v>
+      </c>
+      <c r="G109" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="H109" t="n">
+        <v>-10.37</v>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>94.41M</t>
+        </is>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>87.93M</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="3" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Medical Devices</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="D110" t="n">
+        <v>-10.1</v>
+      </c>
+      <c r="E110" t="n">
+        <v>-11.18</v>
+      </c>
+      <c r="F110" t="n">
+        <v>-12.51</v>
+      </c>
+      <c r="G110" t="n">
+        <v>-2.52</v>
+      </c>
+      <c r="H110" t="n">
+        <v>-9.5</v>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>122.52M</t>
+        </is>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>175.88M</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="3" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Specialty Chemicals</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>-0.36</v>
+      </c>
+      <c r="D111" t="n">
+        <v>-10.14</v>
+      </c>
+      <c r="E111" t="n">
+        <v>-5.96</v>
+      </c>
+      <c r="F111" t="n">
+        <v>-1.3</v>
+      </c>
+      <c r="G111" t="n">
+        <v>14.17</v>
+      </c>
+      <c r="H111" t="n">
+        <v>-10.57</v>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>55.07M</t>
+        </is>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>60.37M</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="3" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Software - Infrastructure</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="D112" t="n">
+        <v>-10.14</v>
+      </c>
+      <c r="E112" t="n">
+        <v>-13.73</v>
+      </c>
+      <c r="F112" t="n">
+        <v>-3.03</v>
+      </c>
+      <c r="G112" t="n">
+        <v>12.29</v>
+      </c>
+      <c r="H112" t="n">
+        <v>-9.31</v>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>313.86M</t>
+        </is>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>394.89M</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="3" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Auto Manufacturers</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>-0.55</v>
+      </c>
+      <c r="D113" t="n">
+        <v>-10.17</v>
+      </c>
+      <c r="E113" t="n">
+        <v>-11.64</v>
+      </c>
+      <c r="F113" t="n">
+        <v>13.11</v>
+      </c>
+      <c r="G113" t="n">
+        <v>7.34</v>
+      </c>
+      <c r="H113" t="n">
+        <v>-9.73</v>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>409.18M</t>
+        </is>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>7.85</v>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>423.53M</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="3" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Engineering &amp; Construction</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
+        <v>-1.2</v>
+      </c>
+      <c r="D114" t="n">
+        <v>-10.23</v>
+      </c>
+      <c r="E114" t="n">
+        <v>-5.96</v>
+      </c>
+      <c r="F114" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="G114" t="n">
+        <v>26.74</v>
+      </c>
+      <c r="H114" t="n">
+        <v>-10.85</v>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>17.26M</t>
+        </is>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>26.29M</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="3" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Utilities - Independent Power Producers</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D115" t="n">
+        <v>-10.25</v>
+      </c>
+      <c r="E115" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="F115" t="n">
+        <v>21.16</v>
+      </c>
+      <c r="G115" t="n">
+        <v>20.1</v>
+      </c>
+      <c r="H115" t="n">
+        <v>-11.55</v>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>7.16M</t>
+        </is>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>8.64M</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="3" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Leisure</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
+        <v>-0.79</v>
+      </c>
+      <c r="D116" t="n">
+        <v>-10.25</v>
+      </c>
+      <c r="E116" t="n">
+        <v>-20.05</v>
+      </c>
+      <c r="F116" t="n">
+        <v>-23.84</v>
+      </c>
+      <c r="G116" t="n">
+        <v>-17.37</v>
+      </c>
+      <c r="H116" t="n">
+        <v>-9.970000000000001</v>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>79.51M</t>
+        </is>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>97.37M</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="3" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Furnishings, Fixtures &amp; Appliances</t>
+        </is>
+      </c>
+      <c r="C117" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="D117" t="n">
+        <v>-10.45</v>
+      </c>
+      <c r="E117" t="n">
+        <v>-11.78</v>
+      </c>
+      <c r="F117" t="n">
+        <v>-15.28</v>
+      </c>
+      <c r="G117" t="n">
+        <v>-0.71</v>
+      </c>
+      <c r="H117" t="n">
+        <v>-11.32</v>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>22.75M</t>
+        </is>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>24.21M</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="3" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Industrial Distribution</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
+        <v>-0.21</v>
+      </c>
+      <c r="D118" t="n">
+        <v>-10.57</v>
+      </c>
+      <c r="E118" t="n">
+        <v>-0.8100000000000001</v>
+      </c>
+      <c r="F118" t="n">
+        <v>7.09</v>
+      </c>
+      <c r="G118" t="n">
+        <v>26.37</v>
+      </c>
+      <c r="H118" t="n">
+        <v>-10.89</v>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>6.24M</t>
+        </is>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>10.14M</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="3" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Uranium</t>
+        </is>
+      </c>
+      <c r="C119" t="n">
+        <v>-2.11</v>
+      </c>
+      <c r="D119" t="n">
+        <v>-10.95</v>
+      </c>
+      <c r="E119" t="n">
+        <v>-23</v>
+      </c>
+      <c r="F119" t="n">
+        <v>11.63</v>
+      </c>
+      <c r="G119" t="n">
+        <v>37.87</v>
+      </c>
+      <c r="H119" t="n">
+        <v>-11.41</v>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>35.72M</t>
+        </is>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>26.76M</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="3" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Recreational Vehicles</t>
+        </is>
+      </c>
+      <c r="C120" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="D120" t="n">
+        <v>-11.33</v>
+      </c>
+      <c r="E120" t="n">
+        <v>-8.4</v>
+      </c>
+      <c r="F120" t="n">
+        <v>-17.59</v>
+      </c>
+      <c r="G120" t="n">
+        <v>-11.09</v>
+      </c>
+      <c r="H120" t="n">
+        <v>-11.76</v>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>9.11M</t>
+        </is>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>10.17M</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="3" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Footwear &amp; Accessories</t>
+        </is>
+      </c>
+      <c r="C121" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="D121" t="n">
+        <v>-11.36</v>
+      </c>
+      <c r="E121" t="n">
+        <v>-12.39</v>
+      </c>
+      <c r="F121" t="n">
+        <v>-13.48</v>
+      </c>
+      <c r="G121" t="n">
+        <v>9.779999999999999</v>
+      </c>
+      <c r="H121" t="n">
+        <v>-10.94</v>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>13.66M</t>
+        </is>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="L121" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>13.48M</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="3" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Apparel Retail</t>
+        </is>
+      </c>
+      <c r="C122" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="D122" t="n">
+        <v>-11.52</v>
+      </c>
+      <c r="E122" t="n">
+        <v>-10.4</v>
+      </c>
+      <c r="F122" t="n">
+        <v>-12.95</v>
+      </c>
+      <c r="G122" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="H122" t="n">
+        <v>-11.08</v>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>53.14M</t>
+        </is>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>45.21M</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="3" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Utilities - Renewable</t>
+        </is>
+      </c>
+      <c r="C123" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="D123" t="n">
+        <v>-11.53</v>
+      </c>
+      <c r="E123" t="n">
+        <v>-17.36</v>
+      </c>
+      <c r="F123" t="n">
+        <v>-15.64</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-28.3</v>
+      </c>
+      <c r="H123" t="n">
+        <v>-13.98</v>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>10.76M</t>
+        </is>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="L123" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>14.30M</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="3" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Scientific &amp; Technical Instruments</t>
+        </is>
+      </c>
+      <c r="C124" t="n">
+        <v>-1.64</v>
+      </c>
+      <c r="D124" t="n">
+        <v>-11.79</v>
+      </c>
+      <c r="E124" t="n">
+        <v>-10.65</v>
+      </c>
+      <c r="F124" t="n">
+        <v>-11.56</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-1.16</v>
+      </c>
+      <c r="H124" t="n">
+        <v>-11.76</v>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>24.31M</t>
+        </is>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="L124" t="n">
+        <v>3</v>
+      </c>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>41.72M</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="3" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Silver</t>
+        </is>
+      </c>
+      <c r="C125" t="n">
+        <v>-4.95</v>
+      </c>
+      <c r="D125" t="n">
+        <v>-11.79</v>
+      </c>
+      <c r="E125" t="n">
+        <v>-21.8</v>
+      </c>
+      <c r="F125" t="n">
+        <v>-25.55</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-47.84</v>
+      </c>
+      <c r="H125" t="n">
+        <v>-12.04</v>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>17.21M</t>
+        </is>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="L125" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>15.98M</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="3" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Utilities - Regulated Water</t>
+        </is>
+      </c>
+      <c r="C126" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="D126" t="n">
+        <v>-11.84</v>
+      </c>
+      <c r="E126" t="n">
+        <v>-3.77</v>
+      </c>
+      <c r="F126" t="n">
+        <v>-3.98</v>
+      </c>
+      <c r="G126" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="H126" t="n">
+        <v>-12.29</v>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>6.35M</t>
+        </is>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="L126" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>9.12M</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="3" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Medical Care Facilities</t>
+        </is>
+      </c>
+      <c r="C127" t="n">
+        <v>-1.09</v>
+      </c>
+      <c r="D127" t="n">
+        <v>-11.87</v>
+      </c>
+      <c r="E127" t="n">
+        <v>-11.52</v>
+      </c>
+      <c r="F127" t="n">
+        <v>-23.04</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-9.58</v>
+      </c>
+      <c r="H127" t="n">
+        <v>-11.47</v>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>34.11M</t>
+        </is>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="L127" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>40.89M</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="3" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>REIT - Specialty</t>
+        </is>
+      </c>
+      <c r="C128" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="D128" t="n">
+        <v>-12.07</v>
+      </c>
+      <c r="E128" t="n">
+        <v>-5.61</v>
+      </c>
+      <c r="F128" t="n">
+        <v>-5.37</v>
+      </c>
+      <c r="G128" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="H128" t="n">
+        <v>-12.26</v>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>21.28M</t>
+        </is>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="L128" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>34.32M</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="3" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Medical Instruments &amp; Supplies</t>
+        </is>
+      </c>
+      <c r="C129" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="D129" t="n">
+        <v>-12.12</v>
+      </c>
+      <c r="E129" t="n">
+        <v>-10.94</v>
+      </c>
+      <c r="F129" t="n">
+        <v>-9.380000000000001</v>
+      </c>
+      <c r="G129" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="H129" t="n">
+        <v>-11.37</v>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>34.31M</t>
+        </is>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="L129" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>30.11M</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="3" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Consulting Services</t>
+        </is>
+      </c>
+      <c r="C130" t="n">
+        <v>-0.62</v>
+      </c>
+      <c r="D130" t="n">
+        <v>-12.27</v>
+      </c>
+      <c r="E130" t="n">
+        <v>-10.22</v>
+      </c>
+      <c r="F130" t="n">
+        <v>-3.25</v>
+      </c>
+      <c r="G130" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="H130" t="n">
+        <v>-12.54</v>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>10.89M</t>
+        </is>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="L130" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>14.93M</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="3" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Entertainment</t>
+        </is>
+      </c>
+      <c r="C131" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="D131" t="n">
+        <v>-12.49</v>
+      </c>
+      <c r="E131" t="n">
+        <v>-18.3</v>
+      </c>
+      <c r="F131" t="n">
+        <v>-17.69</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-12.16</v>
+      </c>
+      <c r="H131" t="n">
+        <v>-11.61</v>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>167.53M</t>
+        </is>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="L131" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>184.20M</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="3" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Staffing &amp; Employment Services</t>
+        </is>
+      </c>
+      <c r="C132" t="n">
+        <v>-1.96</v>
+      </c>
+      <c r="D132" t="n">
+        <v>-12.77</v>
+      </c>
+      <c r="E132" t="n">
+        <v>-8.460000000000001</v>
+      </c>
+      <c r="F132" t="n">
+        <v>-2.26</v>
+      </c>
+      <c r="G132" t="n">
+        <v>22.08</v>
+      </c>
+      <c r="H132" t="n">
+        <v>-12.83</v>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>24.10M</t>
+        </is>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="L132" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>23.78M</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="3" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Pollution &amp; Treatment Controls</t>
+        </is>
+      </c>
+      <c r="C133" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="D133" t="n">
+        <v>-14.11</v>
+      </c>
+      <c r="E133" t="n">
+        <v>-19.56</v>
+      </c>
+      <c r="F133" t="n">
+        <v>-11.28</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-3.48</v>
+      </c>
+      <c r="H133" t="n">
+        <v>-14.58</v>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>8.52M</t>
+        </is>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="L133" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>3.62M</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="3" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Residential Construction</t>
+        </is>
+      </c>
+      <c r="C134" t="n">
+        <v>-1.72</v>
+      </c>
+      <c r="D134" t="n">
+        <v>-14.13</v>
+      </c>
+      <c r="E134" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="F134" t="n">
+        <v>-5.09</v>
+      </c>
+      <c r="G134" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="H134" t="n">
+        <v>-14.8</v>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>17.38M</t>
+        </is>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="L134" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>22.77M</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="3" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Health Information Services</t>
+        </is>
+      </c>
+      <c r="C135" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="D135" t="n">
+        <v>-14.34</v>
+      </c>
+      <c r="E135" t="n">
+        <v>-26.57</v>
+      </c>
+      <c r="F135" t="n">
+        <v>-29.28</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-39.05</v>
+      </c>
+      <c r="H135" t="n">
+        <v>-13.59</v>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>54.03M</t>
+        </is>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="L135" t="n">
+        <v>4.86</v>
+      </c>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>52.28M</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="3" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Diagnostics &amp; Research</t>
+        </is>
+      </c>
+      <c r="C136" t="n">
+        <v>1</v>
+      </c>
+      <c r="D136" t="n">
+        <v>-14.41</v>
+      </c>
+      <c r="E136" t="n">
+        <v>-14.46</v>
+      </c>
+      <c r="F136" t="n">
+        <v>-10.58</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-1.04</v>
+      </c>
+      <c r="H136" t="n">
+        <v>-14.33</v>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>93.00M</t>
+        </is>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="L136" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>92.40M</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="3" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Semiconductor Equipment &amp; Materials</t>
+        </is>
+      </c>
+      <c r="C137" t="n">
+        <v>-2.29</v>
+      </c>
+      <c r="D137" t="n">
+        <v>-14.85</v>
+      </c>
+      <c r="E137" t="n">
+        <v>-8.74</v>
+      </c>
+      <c r="F137" t="n">
+        <v>-7.27</v>
+      </c>
+      <c r="G137" t="n">
+        <v>20.04</v>
+      </c>
+      <c r="H137" t="n">
+        <v>-14.69</v>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>29.39M</t>
+        </is>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="L137" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>32.39M</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="3" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Building Products &amp; Equipment</t>
+        </is>
+      </c>
+      <c r="C138" t="n">
+        <v>-2.14</v>
+      </c>
+      <c r="D138" t="n">
+        <v>-15.02</v>
+      </c>
+      <c r="E138" t="n">
+        <v>-5.17</v>
+      </c>
+      <c r="F138" t="n">
+        <v>-3.28</v>
+      </c>
+      <c r="G138" t="n">
+        <v>15.76</v>
+      </c>
+      <c r="H138" t="n">
+        <v>-15.94</v>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>24.13M</t>
+        </is>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="L138" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>34.36M</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="3" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Trucking</t>
+        </is>
+      </c>
+      <c r="C139" t="n">
+        <v>-1.81</v>
+      </c>
+      <c r="D139" t="n">
+        <v>-15.18</v>
+      </c>
+      <c r="E139" t="n">
+        <v>-12.39</v>
+      </c>
+      <c r="F139" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="G139" t="n">
+        <v>30.38</v>
+      </c>
+      <c r="H139" t="n">
+        <v>-15.93</v>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>12.13M</t>
+        </is>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="L139" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>14.54M</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="3" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Software - Application</t>
+        </is>
+      </c>
+      <c r="C140" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="D140" t="n">
+        <v>-16.29</v>
+      </c>
+      <c r="E140" t="n">
+        <v>-25.13</v>
+      </c>
+      <c r="F140" t="n">
+        <v>-17.23</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-15.48</v>
+      </c>
+      <c r="H140" t="n">
+        <v>-15.43</v>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>426.95M</t>
+        </is>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="L140" t="n">
+        <v>5.49</v>
+      </c>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>445.38M</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="3" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Electrical Equipment &amp; Parts</t>
+        </is>
+      </c>
+      <c r="C141" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="D141" t="n">
+        <v>-16.69</v>
+      </c>
+      <c r="E141" t="n">
+        <v>-23.38</v>
+      </c>
+      <c r="F141" t="n">
+        <v>-12.57</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-31.52</v>
+      </c>
+      <c r="H141" t="n">
+        <v>-16.67</v>
+      </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>89.57M</t>
+        </is>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="L141" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>89.88M</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="3" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Electronic Gaming &amp; Multimedia</t>
+        </is>
+      </c>
+      <c r="C142" t="n">
+        <v>-1.02</v>
+      </c>
+      <c r="D142" t="n">
+        <v>-16.92</v>
+      </c>
+      <c r="E142" t="n">
+        <v>-33.29</v>
+      </c>
+      <c r="F142" t="n">
+        <v>-29.37</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-30.11</v>
+      </c>
+      <c r="H142" t="n">
+        <v>-16.52</v>
+      </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>114.59M</t>
+        </is>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="L142" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>148.97M</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="3" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Gambling</t>
+        </is>
+      </c>
+      <c r="C143" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="D143" t="n">
+        <v>-17.46</v>
+      </c>
+      <c r="E143" t="n">
+        <v>-37.96</v>
+      </c>
+      <c r="F143" t="n">
+        <v>-31.24</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-35.57</v>
+      </c>
+      <c r="H143" t="n">
+        <v>-16.38</v>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>32.51M</t>
+        </is>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="L143" t="n">
+        <v>5.49</v>
+      </c>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>35.83M</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="3" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Biotechnology</t>
+        </is>
+      </c>
+      <c r="C144" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="D144" t="n">
+        <v>-18.09</v>
+      </c>
+      <c r="E144" t="n">
+        <v>-27.11</v>
+      </c>
+      <c r="F144" t="n">
+        <v>-28.29</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-32.54</v>
+      </c>
+      <c r="H144" t="n">
+        <v>-17.37</v>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>817.96M</t>
+        </is>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="L144" t="n">
+        <v>4.72</v>
+      </c>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>602.63M</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="3" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Solar</t>
+        </is>
+      </c>
+      <c r="C145" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="D145" t="n">
+        <v>-20.77</v>
+      </c>
+      <c r="E145" t="n">
+        <v>-41.24</v>
+      </c>
+      <c r="F145" t="n">
+        <v>-26.02</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-42.49</v>
+      </c>
+      <c r="H145" t="n">
+        <v>-19.98</v>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>30.57M</t>
+        </is>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="L145" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>49.67M</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/Data/industry_2022.xlsx
+++ b/Data/industry_2022.xlsx
@@ -13,6 +13,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-01-27" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-01-28" sheetId="6" state="visible" r:id="rId6"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-01-31" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-02-01" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -52422,4 +52423,7429 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M145"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Perf Week</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Perf Month</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Perf Quart</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Perf Half</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Perf Year</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>Perf YTD</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Recom</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="inlineStr">
+        <is>
+          <t>Avg Volume</t>
+        </is>
+      </c>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Rel Volume</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="inlineStr">
+        <is>
+          <t>Change</t>
+        </is>
+      </c>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Volume</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Oil &amp; Gas Equipment &amp; Services</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="D2" t="n">
+        <v>25.52</v>
+      </c>
+      <c r="E2" t="n">
+        <v>11.61</v>
+      </c>
+      <c r="F2" t="n">
+        <v>28.56</v>
+      </c>
+      <c r="G2" t="n">
+        <v>48.63</v>
+      </c>
+      <c r="H2" t="n">
+        <v>25.52</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>74.17M</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="L2" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>122.97M</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Oil &amp; Gas Drilling</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="D3" t="n">
+        <v>22.96</v>
+      </c>
+      <c r="E3" t="n">
+        <v>4.87</v>
+      </c>
+      <c r="F3" t="n">
+        <v>22.36</v>
+      </c>
+      <c r="G3" t="n">
+        <v>47.29</v>
+      </c>
+      <c r="H3" t="n">
+        <v>22.96</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>21.24M</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="L3" t="n">
+        <v>6.66</v>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>35.14M</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Oil &amp; Gas E&amp;P</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="D4" t="n">
+        <v>22.17</v>
+      </c>
+      <c r="E4" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="F4" t="n">
+        <v>52.11</v>
+      </c>
+      <c r="G4" t="n">
+        <v>111.42</v>
+      </c>
+      <c r="H4" t="n">
+        <v>22.17</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>257.47M</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>274.62M</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Oil &amp; Gas Integrated</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="D5" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="E5" t="n">
+        <v>15.62</v>
+      </c>
+      <c r="F5" t="n">
+        <v>31.04</v>
+      </c>
+      <c r="G5" t="n">
+        <v>53.18</v>
+      </c>
+      <c r="H5" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>120.23M</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>171.40M</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Oil &amp; Gas Refining &amp; Marketing</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="D6" t="n">
+        <v>14.16</v>
+      </c>
+      <c r="E6" t="n">
+        <v>8.15</v>
+      </c>
+      <c r="F6" t="n">
+        <v>17.16</v>
+      </c>
+      <c r="G6" t="n">
+        <v>32.73</v>
+      </c>
+      <c r="H6" t="n">
+        <v>14.16</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>34.03M</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>39.63M</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Thermal Coal</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>6.61</v>
+      </c>
+      <c r="D7" t="n">
+        <v>11.33</v>
+      </c>
+      <c r="E7" t="n">
+        <v>4.59</v>
+      </c>
+      <c r="F7" t="n">
+        <v>36.7</v>
+      </c>
+      <c r="G7" t="n">
+        <v>115.07</v>
+      </c>
+      <c r="H7" t="n">
+        <v>11.33</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>7.94M</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>7.24</v>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>9.02M</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Oil &amp; Gas Midstream</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>10.92</v>
+      </c>
+      <c r="E8" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="F8" t="n">
+        <v>11.28</v>
+      </c>
+      <c r="G8" t="n">
+        <v>33.32</v>
+      </c>
+      <c r="H8" t="n">
+        <v>10.92</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>108.58M</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>123.08M</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Marine Shipping</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>13.03</v>
+      </c>
+      <c r="D9" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="E9" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="F9" t="n">
+        <v>24.89</v>
+      </c>
+      <c r="G9" t="n">
+        <v>78.03</v>
+      </c>
+      <c r="H9" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>28.54M</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>32.74M</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Coking Coal</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>10.42</v>
+      </c>
+      <c r="D10" t="n">
+        <v>10</v>
+      </c>
+      <c r="E10" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="F10" t="n">
+        <v>55.32</v>
+      </c>
+      <c r="G10" t="n">
+        <v>88.88</v>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>3.08M</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>2.50M</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Tobacco</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="D11" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="E11" t="n">
+        <v>13.85</v>
+      </c>
+      <c r="F11" t="n">
+        <v>5.59</v>
+      </c>
+      <c r="G11" t="n">
+        <v>11.05</v>
+      </c>
+      <c r="H11" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>35.57M</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>26.41M</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Other Industrial Metals &amp; Mining</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="D12" t="n">
+        <v>9.08</v>
+      </c>
+      <c r="E12" t="n">
+        <v>17.09</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-16.76</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="H12" t="n">
+        <v>9.08</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>78.51M</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>74.46M</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Department Stores</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>-2.15</v>
+      </c>
+      <c r="D13" t="n">
+        <v>7.51</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-0.21</v>
+      </c>
+      <c r="F13" t="n">
+        <v>14.82</v>
+      </c>
+      <c r="G13" t="n">
+        <v>43.66</v>
+      </c>
+      <c r="H13" t="n">
+        <v>7.51</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>30.09M</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>16.57M</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Farm Products</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>5.44</v>
+      </c>
+      <c r="D14" t="n">
+        <v>6.79</v>
+      </c>
+      <c r="E14" t="n">
+        <v>10.28</v>
+      </c>
+      <c r="F14" t="n">
+        <v>18.94</v>
+      </c>
+      <c r="G14" t="n">
+        <v>27.65</v>
+      </c>
+      <c r="H14" t="n">
+        <v>6.79</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>13.78M</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>12.85M</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Insurance - Life</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="D15" t="n">
+        <v>6.67</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="F15" t="n">
+        <v>7.86</v>
+      </c>
+      <c r="G15" t="n">
+        <v>10.17</v>
+      </c>
+      <c r="H15" t="n">
+        <v>6.67</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>24.30M</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>30.52M</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Banks - Diversified</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="D16" t="n">
+        <v>6.14</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="F16" t="n">
+        <v>11.15</v>
+      </c>
+      <c r="G16" t="n">
+        <v>33.76</v>
+      </c>
+      <c r="H16" t="n">
+        <v>6.14</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>162.36M</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>164.70M</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Banks - Regional</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="D17" t="n">
+        <v>5.79</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F17" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="G17" t="n">
+        <v>20.96</v>
+      </c>
+      <c r="H17" t="n">
+        <v>5.79</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>244.95M</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>265.47M</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Insurance - Diversified</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="D18" t="n">
+        <v>4.71</v>
+      </c>
+      <c r="E18" t="n">
+        <v>8.52</v>
+      </c>
+      <c r="F18" t="n">
+        <v>11.76</v>
+      </c>
+      <c r="G18" t="n">
+        <v>35.08</v>
+      </c>
+      <c r="H18" t="n">
+        <v>4.71</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>24.04M</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>23.22M</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Airlines</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="D19" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="E19" t="n">
+        <v>-2.93</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-1.63</v>
+      </c>
+      <c r="G19" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="H19" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>99.06M</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>76.36M</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Credit Services</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>10.64</v>
+      </c>
+      <c r="D20" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="E20" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="F20" t="n">
+        <v>-7.25</v>
+      </c>
+      <c r="G20" t="n">
+        <v>6.57</v>
+      </c>
+      <c r="H20" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>152.93M</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>198.20M</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Paper &amp; Paper Products</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>6.69</v>
+      </c>
+      <c r="D21" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="E21" t="n">
+        <v>19.37</v>
+      </c>
+      <c r="F21" t="n">
+        <v>6.47</v>
+      </c>
+      <c r="G21" t="n">
+        <v>-0.42</v>
+      </c>
+      <c r="H21" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>6.41M</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>5.33M</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Farm &amp; Heavy Construction Machinery</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>-0.14</v>
+      </c>
+      <c r="D22" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="G22" t="n">
+        <v>10.51</v>
+      </c>
+      <c r="H22" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>19.78M</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>21.33M</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Insurance - Property &amp; Casualty</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="D23" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="E23" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="F23" t="n">
+        <v>6.51</v>
+      </c>
+      <c r="G23" t="n">
+        <v>18.82</v>
+      </c>
+      <c r="H23" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>26.92M</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>29.14M</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Beverages - Brewers</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>-1.74</v>
+      </c>
+      <c r="D24" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="F24" t="n">
+        <v>-5.44</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-4.66</v>
+      </c>
+      <c r="H24" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>31.08M</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>17.19M</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Conglomerates</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="D25" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="E25" t="n">
+        <v>-6</v>
+      </c>
+      <c r="F25" t="n">
+        <v>-3.55</v>
+      </c>
+      <c r="G25" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="H25" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>4.59M</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>1.89M</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Integrated Freight &amp; Logistics</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>8</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="E26" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="F26" t="n">
+        <v>7.83</v>
+      </c>
+      <c r="G26" t="n">
+        <v>24.24</v>
+      </c>
+      <c r="H26" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>15.37M</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>7.83</v>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>34.74M</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Medical Distribution</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="E27" t="n">
+        <v>12.15</v>
+      </c>
+      <c r="F27" t="n">
+        <v>8.01</v>
+      </c>
+      <c r="G27" t="n">
+        <v>24.55</v>
+      </c>
+      <c r="H27" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>7.71M</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>9.24M</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="3" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Broadcasting</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>5.18</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="E28" t="n">
+        <v>-1.62</v>
+      </c>
+      <c r="F28" t="n">
+        <v>6.73</v>
+      </c>
+      <c r="G28" t="n">
+        <v>18.22</v>
+      </c>
+      <c r="H28" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>50.19M</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>83.45M</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="3" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Capital Markets</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>4.71</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="E29" t="n">
+        <v>-3.22</v>
+      </c>
+      <c r="F29" t="n">
+        <v>5.96</v>
+      </c>
+      <c r="G29" t="n">
+        <v>26.99</v>
+      </c>
+      <c r="H29" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>102.74M</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>97.20M</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="3" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Aerospace &amp; Defense</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>-0.18</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="E30" t="n">
+        <v>-0.96</v>
+      </c>
+      <c r="F30" t="n">
+        <v>-3.83</v>
+      </c>
+      <c r="G30" t="n">
+        <v>10.04</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>77.60M</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>88.11M</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="3" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Travel Services</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>6.37</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="E31" t="n">
+        <v>-5.49</v>
+      </c>
+      <c r="F31" t="n">
+        <v>9.42</v>
+      </c>
+      <c r="G31" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>90.98M</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>79.06M</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Packaging &amp; Containers</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>5.19</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="E32" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="F32" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="G32" t="n">
+        <v>9.23</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>25.58M</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>28.68M</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="3" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Insurance - Reinsurance</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>-0.67</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="F33" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="G33" t="n">
+        <v>13.73</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>2.07M</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>2.01M</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Confectioners</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="E34" t="n">
+        <v>10.09</v>
+      </c>
+      <c r="F34" t="n">
+        <v>6.07</v>
+      </c>
+      <c r="G34" t="n">
+        <v>22.45</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>8.70M</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>-0.59</v>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>7.54M</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="3" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Shell Companies</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="E35" t="n">
+        <v>-1.44</v>
+      </c>
+      <c r="F35" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="G35" t="n">
+        <v>-14.84</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>57.30M</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>42.36M</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="3" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Utilities - Diversified</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="E36" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="F36" t="n">
+        <v>8.24</v>
+      </c>
+      <c r="G36" t="n">
+        <v>15.76</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>37.58M</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>-0.28</v>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>37.40M</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="3" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Utilities - Regulated Gas</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="E37" t="n">
+        <v>5.02</v>
+      </c>
+      <c r="F37" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="G37" t="n">
+        <v>10.63</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>14.81M</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>-0.11</v>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>17.00M</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="3" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Beverages - Non-Alcoholic</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="D38" t="n">
+        <v>-0.16</v>
+      </c>
+      <c r="E38" t="n">
+        <v>5.27</v>
+      </c>
+      <c r="F38" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="G38" t="n">
+        <v>18.51</v>
+      </c>
+      <c r="H38" t="n">
+        <v>-0.16</v>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>44.51M</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>-0.39</v>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>43.75M</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="3" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Agricultural Inputs</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="D39" t="n">
+        <v>-0.21</v>
+      </c>
+      <c r="E39" t="n">
+        <v>7.68</v>
+      </c>
+      <c r="F39" t="n">
+        <v>18.61</v>
+      </c>
+      <c r="G39" t="n">
+        <v>27.52</v>
+      </c>
+      <c r="H39" t="n">
+        <v>-0.21</v>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>18.16M</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>25.78M</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="3" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>REIT - Mortgage</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>1</v>
+      </c>
+      <c r="D40" t="n">
+        <v>-0.51</v>
+      </c>
+      <c r="E40" t="n">
+        <v>-8.529999999999999</v>
+      </c>
+      <c r="F40" t="n">
+        <v>-4.8</v>
+      </c>
+      <c r="G40" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="H40" t="n">
+        <v>-0.51</v>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>75.02M</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>-0.52</v>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>82.10M</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="3" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Food Distribution</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="D41" t="n">
+        <v>-0.65</v>
+      </c>
+      <c r="E41" t="n">
+        <v>-0.5600000000000001</v>
+      </c>
+      <c r="F41" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="G41" t="n">
+        <v>8.01</v>
+      </c>
+      <c r="H41" t="n">
+        <v>-0.65</v>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>7.58M</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>8.43M</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="3" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Copper</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>-0.31</v>
+      </c>
+      <c r="D42" t="n">
+        <v>-0.73</v>
+      </c>
+      <c r="E42" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="F42" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="G42" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="H42" t="n">
+        <v>-0.73</v>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>21.74M</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>24.50M</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="3" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Packaged Foods</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="D43" t="n">
+        <v>-0.83</v>
+      </c>
+      <c r="E43" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="F43" t="n">
+        <v>-0.59</v>
+      </c>
+      <c r="G43" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="H43" t="n">
+        <v>-0.83</v>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>114.26M</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>93.71M</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="3" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Chemicals</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="D44" t="n">
+        <v>-0.96</v>
+      </c>
+      <c r="E44" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="F44" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="G44" t="n">
+        <v>10.66</v>
+      </c>
+      <c r="H44" t="n">
+        <v>-0.96</v>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>28.61M</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>26.15M</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="3" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Telecom Services</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="D45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E45" t="n">
+        <v>-3.27</v>
+      </c>
+      <c r="F45" t="n">
+        <v>-11.46</v>
+      </c>
+      <c r="G45" t="n">
+        <v>-7.88</v>
+      </c>
+      <c r="H45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>164.10M</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>-0.53</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>235.16M</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="3" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>REIT - Healthcare Facilities</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>-0.44</v>
+      </c>
+      <c r="D46" t="n">
+        <v>-1.48</v>
+      </c>
+      <c r="E46" t="n">
+        <v>-0.9</v>
+      </c>
+      <c r="F46" t="n">
+        <v>-4.47</v>
+      </c>
+      <c r="G46" t="n">
+        <v>10.19</v>
+      </c>
+      <c r="H46" t="n">
+        <v>-1.48</v>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>29.03M</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>-1.45</v>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>30.00M</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="3" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>REIT - Hotel &amp; Motel</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="D47" t="n">
+        <v>-1.73</v>
+      </c>
+      <c r="E47" t="n">
+        <v>-4.18</v>
+      </c>
+      <c r="F47" t="n">
+        <v>5.01</v>
+      </c>
+      <c r="G47" t="n">
+        <v>12.96</v>
+      </c>
+      <c r="H47" t="n">
+        <v>-1.73</v>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>29.36M</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>29.91M</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="3" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Lumber &amp; Wood Production</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="D48" t="n">
+        <v>-1.77</v>
+      </c>
+      <c r="E48" t="n">
+        <v>12.53</v>
+      </c>
+      <c r="F48" t="n">
+        <v>29.66</v>
+      </c>
+      <c r="G48" t="n">
+        <v>48.43</v>
+      </c>
+      <c r="H48" t="n">
+        <v>-1.77</v>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>1.02M</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>1.62M</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="3" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Resorts &amp; Casinos</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="D49" t="n">
+        <v>-1.99</v>
+      </c>
+      <c r="E49" t="n">
+        <v>-11.13</v>
+      </c>
+      <c r="F49" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="G49" t="n">
+        <v>-3.54</v>
+      </c>
+      <c r="H49" t="n">
+        <v>-1.99</v>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>36.93M</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>32.85M</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="3" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Drug Manufacturers - General</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="D50" t="n">
+        <v>-2.02</v>
+      </c>
+      <c r="E50" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="F50" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="G50" t="n">
+        <v>15.01</v>
+      </c>
+      <c r="H50" t="n">
+        <v>-2.02</v>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>124.76M</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>108.76M</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="3" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Aluminum</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>-3.78</v>
+      </c>
+      <c r="D51" t="n">
+        <v>-2.09</v>
+      </c>
+      <c r="E51" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="F51" t="n">
+        <v>6.08</v>
+      </c>
+      <c r="G51" t="n">
+        <v>85.06</v>
+      </c>
+      <c r="H51" t="n">
+        <v>-2.09</v>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>10.26M</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>7.60M</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Consumer Electronics</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="D52" t="n">
+        <v>-2.25</v>
+      </c>
+      <c r="E52" t="n">
+        <v>15.46</v>
+      </c>
+      <c r="F52" t="n">
+        <v>17.59</v>
+      </c>
+      <c r="G52" t="n">
+        <v>27.93</v>
+      </c>
+      <c r="H52" t="n">
+        <v>-2.25</v>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>112.45M</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>97.26M</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="3" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Real Estate - Development</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>5.74</v>
+      </c>
+      <c r="D53" t="n">
+        <v>-2.83</v>
+      </c>
+      <c r="E53" t="n">
+        <v>-10.75</v>
+      </c>
+      <c r="F53" t="n">
+        <v>-11.01</v>
+      </c>
+      <c r="G53" t="n">
+        <v>-17.59</v>
+      </c>
+      <c r="H53" t="n">
+        <v>-2.83</v>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>6.28M</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>2.19M</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="3" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Advertising Agencies</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="D54" t="n">
+        <v>-2.86</v>
+      </c>
+      <c r="E54" t="n">
+        <v>-6.13</v>
+      </c>
+      <c r="F54" t="n">
+        <v>-4.14</v>
+      </c>
+      <c r="G54" t="n">
+        <v>8.81</v>
+      </c>
+      <c r="H54" t="n">
+        <v>-2.86</v>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>36.37M</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>18.72M</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="3" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Lodging</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="D55" t="n">
+        <v>-3.12</v>
+      </c>
+      <c r="E55" t="n">
+        <v>-1.62</v>
+      </c>
+      <c r="F55" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="G55" t="n">
+        <v>22.51</v>
+      </c>
+      <c r="H55" t="n">
+        <v>-3.12</v>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>8.41M</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>7.74M</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="3" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Gold</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>-2.55</v>
+      </c>
+      <c r="D56" t="n">
+        <v>-3.21</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F56" t="n">
+        <v>-11.06</v>
+      </c>
+      <c r="G56" t="n">
+        <v>-7.3</v>
+      </c>
+      <c r="H56" t="n">
+        <v>-3.21</v>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>141.26M</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>127.04M</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="3" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Railroads</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="D57" t="n">
+        <v>-3.37</v>
+      </c>
+      <c r="E57" t="n">
+        <v>-2.84</v>
+      </c>
+      <c r="F57" t="n">
+        <v>7.95</v>
+      </c>
+      <c r="G57" t="n">
+        <v>14.12</v>
+      </c>
+      <c r="H57" t="n">
+        <v>-3.37</v>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>26.14M</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>20.85M</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="3" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Steel</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="D58" t="n">
+        <v>-3.51</v>
+      </c>
+      <c r="E58" t="n">
+        <v>-5.22</v>
+      </c>
+      <c r="F58" t="n">
+        <v>-12.58</v>
+      </c>
+      <c r="G58" t="n">
+        <v>37.85</v>
+      </c>
+      <c r="H58" t="n">
+        <v>-3.51</v>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>64.96M</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>74.86M</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="3" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Financial Conglomerates</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="D59" t="n">
+        <v>-4.29</v>
+      </c>
+      <c r="E59" t="n">
+        <v>-9.06</v>
+      </c>
+      <c r="F59" t="n">
+        <v>6.81</v>
+      </c>
+      <c r="G59" t="n">
+        <v>36.76</v>
+      </c>
+      <c r="H59" t="n">
+        <v>-4.29</v>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>4.12M</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>4.03M</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="3" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Asset Management</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="D60" t="n">
+        <v>-4.31</v>
+      </c>
+      <c r="E60" t="n">
+        <v>-9.619999999999999</v>
+      </c>
+      <c r="F60" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="G60" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="H60" t="n">
+        <v>-4.31</v>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>89.41M</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>86.79M</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="3" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Insurance - Specialty</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="D61" t="n">
+        <v>-4.7</v>
+      </c>
+      <c r="E61" t="n">
+        <v>-4.04</v>
+      </c>
+      <c r="F61" t="n">
+        <v>-0.64</v>
+      </c>
+      <c r="G61" t="n">
+        <v>9.99</v>
+      </c>
+      <c r="H61" t="n">
+        <v>-4.7</v>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>13.70M</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>11.41M</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="3" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Pharmaceutical Retailers</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>-2.27</v>
+      </c>
+      <c r="D62" t="n">
+        <v>-4.93</v>
+      </c>
+      <c r="E62" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="F62" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="G62" t="n">
+        <v>-2.04</v>
+      </c>
+      <c r="H62" t="n">
+        <v>-4.93</v>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>16.51M</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>10.23M</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="3" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Utilities - Regulated Electric</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="D63" t="n">
+        <v>-5.04</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="G63" t="n">
+        <v>5.22</v>
+      </c>
+      <c r="H63" t="n">
+        <v>-5.04</v>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>64.75M</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>-1.47</v>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>108.82M</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="3" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Real Estate - Diversified</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>7.13</v>
+      </c>
+      <c r="D64" t="n">
+        <v>-5.21</v>
+      </c>
+      <c r="E64" t="n">
+        <v>7.87</v>
+      </c>
+      <c r="F64" t="n">
+        <v>8.17</v>
+      </c>
+      <c r="G64" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="H64" t="n">
+        <v>-5.21</v>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>1.40M</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>692.74K</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="3" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Specialty Business Services</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="D65" t="n">
+        <v>-5.39</v>
+      </c>
+      <c r="E65" t="n">
+        <v>-9.19</v>
+      </c>
+      <c r="F65" t="n">
+        <v>-7.47</v>
+      </c>
+      <c r="G65" t="n">
+        <v>-1.66</v>
+      </c>
+      <c r="H65" t="n">
+        <v>-5.39</v>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>20.76M</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>22.22M</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="3" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Metal Fabrication</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="D66" t="n">
+        <v>-5.41</v>
+      </c>
+      <c r="E66" t="n">
+        <v>-6.87</v>
+      </c>
+      <c r="F66" t="n">
+        <v>-7.17</v>
+      </c>
+      <c r="G66" t="n">
+        <v>-11.69</v>
+      </c>
+      <c r="H66" t="n">
+        <v>-5.41</v>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>6.70M</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>5.69M</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="3" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Household &amp; Personal Products</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="D67" t="n">
+        <v>-5.41</v>
+      </c>
+      <c r="E67" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="F67" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="G67" t="n">
+        <v>9.99</v>
+      </c>
+      <c r="H67" t="n">
+        <v>-5.41</v>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>51.38M</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>-0.16</v>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>54.63M</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="3" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Healthcare Plans</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="D68" t="n">
+        <v>-5.54</v>
+      </c>
+      <c r="E68" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="F68" t="n">
+        <v>8.529999999999999</v>
+      </c>
+      <c r="G68" t="n">
+        <v>29.13</v>
+      </c>
+      <c r="H68" t="n">
+        <v>-5.54</v>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>47.49M</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>-0.77</v>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>38.33M</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="3" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>REIT - Retail</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="D69" t="n">
+        <v>-5.59</v>
+      </c>
+      <c r="E69" t="n">
+        <v>-1.01</v>
+      </c>
+      <c r="F69" t="n">
+        <v>5.86</v>
+      </c>
+      <c r="G69" t="n">
+        <v>35.73</v>
+      </c>
+      <c r="H69" t="n">
+        <v>-5.59</v>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>31.00M</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>-0.27</v>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>29.69M</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="3" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Internet Content &amp; Information</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>8.06</v>
+      </c>
+      <c r="D70" t="n">
+        <v>-5.63</v>
+      </c>
+      <c r="E70" t="n">
+        <v>-7.06</v>
+      </c>
+      <c r="F70" t="n">
+        <v>-5.24</v>
+      </c>
+      <c r="G70" t="n">
+        <v>20.92</v>
+      </c>
+      <c r="H70" t="n">
+        <v>-5.63</v>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>176.84M</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>163.86M</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="3" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Publishing</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="D71" t="n">
+        <v>-5.63</v>
+      </c>
+      <c r="E71" t="n">
+        <v>-3.67</v>
+      </c>
+      <c r="F71" t="n">
+        <v>-1.53</v>
+      </c>
+      <c r="G71" t="n">
+        <v>11.74</v>
+      </c>
+      <c r="H71" t="n">
+        <v>-5.63</v>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>4.69M</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>10.97M</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="3" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Business Equipment &amp; Supplies</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="D72" t="n">
+        <v>-5.79</v>
+      </c>
+      <c r="E72" t="n">
+        <v>-6.28</v>
+      </c>
+      <c r="F72" t="n">
+        <v>-3.03</v>
+      </c>
+      <c r="G72" t="n">
+        <v>25.45</v>
+      </c>
+      <c r="H72" t="n">
+        <v>-5.79</v>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>4.37M</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>-0.28</v>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>10.88M</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="3" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Discount Stores</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="D73" t="n">
+        <v>-5.91</v>
+      </c>
+      <c r="E73" t="n">
+        <v>-4.04</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="G73" t="n">
+        <v>12.85</v>
+      </c>
+      <c r="H73" t="n">
+        <v>-5.91</v>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>25.64M</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>18.80M</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="3" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Electronics &amp; Computer Distribution</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="D74" t="n">
+        <v>-5.93</v>
+      </c>
+      <c r="E74" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="F74" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="G74" t="n">
+        <v>17.53</v>
+      </c>
+      <c r="H74" t="n">
+        <v>-5.93</v>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>1.77M</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>1.45M</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="3" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Textile Manufacturing</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="D75" t="n">
+        <v>-5.93</v>
+      </c>
+      <c r="E75" t="n">
+        <v>-2.92</v>
+      </c>
+      <c r="F75" t="n">
+        <v>-2.95</v>
+      </c>
+      <c r="G75" t="n">
+        <v>8.970000000000001</v>
+      </c>
+      <c r="H75" t="n">
+        <v>-5.93</v>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>329.61K</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>298.53K</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="3" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Tools &amp; Accessories</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D76" t="n">
+        <v>-6</v>
+      </c>
+      <c r="E76" t="n">
+        <v>-5.23</v>
+      </c>
+      <c r="F76" t="n">
+        <v>-11.84</v>
+      </c>
+      <c r="G76" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="H76" t="n">
+        <v>-6</v>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>6.90M</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>9.69M</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="3" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Specialty Industrial Machinery</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D77" t="n">
+        <v>-6.05</v>
+      </c>
+      <c r="E77" t="n">
+        <v>-5.82</v>
+      </c>
+      <c r="F77" t="n">
+        <v>-7.86</v>
+      </c>
+      <c r="G77" t="n">
+        <v>10.29</v>
+      </c>
+      <c r="H77" t="n">
+        <v>-6.05</v>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>66.96M</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>81.76M</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="3" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Computer Hardware</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="D78" t="n">
+        <v>-6.06</v>
+      </c>
+      <c r="E78" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="F78" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="G78" t="n">
+        <v>15.28</v>
+      </c>
+      <c r="H78" t="n">
+        <v>-6.06</v>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>70.64M</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>66.59M</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="3" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Beverages - Wineries &amp; Distilleries</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="D79" t="n">
+        <v>-6.65</v>
+      </c>
+      <c r="E79" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="F79" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="G79" t="n">
+        <v>13.12</v>
+      </c>
+      <c r="H79" t="n">
+        <v>-6.65</v>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>4.34M</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>3.32M</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="3" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Airports &amp; Air Services</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="D80" t="n">
+        <v>-6.94</v>
+      </c>
+      <c r="E80" t="n">
+        <v>-8.74</v>
+      </c>
+      <c r="F80" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="G80" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="H80" t="n">
+        <v>-6.94</v>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>11.28M</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>12.43M</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="3" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Luxury Goods</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="D81" t="n">
+        <v>-6.95</v>
+      </c>
+      <c r="E81" t="n">
+        <v>-8.109999999999999</v>
+      </c>
+      <c r="F81" t="n">
+        <v>-7.92</v>
+      </c>
+      <c r="G81" t="n">
+        <v>15.33</v>
+      </c>
+      <c r="H81" t="n">
+        <v>-6.95</v>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>6.93M</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>4.71M</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="3" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Electronic Components</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="D82" t="n">
+        <v>-7.1</v>
+      </c>
+      <c r="E82" t="n">
+        <v>-0.6899999999999999</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G82" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="H82" t="n">
+        <v>-7.1</v>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>33.83M</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>36.62M</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="3" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>REIT - Diversified</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="D83" t="n">
+        <v>-7.23</v>
+      </c>
+      <c r="E83" t="n">
+        <v>-4.41</v>
+      </c>
+      <c r="F83" t="n">
+        <v>-3.66</v>
+      </c>
+      <c r="G83" t="n">
+        <v>14.88</v>
+      </c>
+      <c r="H83" t="n">
+        <v>-7.23</v>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>27.05M</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>29.26M</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="3" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>REIT - Residential</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="D84" t="n">
+        <v>-7.26</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F84" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="G84" t="n">
+        <v>39.49</v>
+      </c>
+      <c r="H84" t="n">
+        <v>-7.26</v>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>20.10M</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>-0.38</v>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>20.69M</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="3" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Security &amp; Protection Services</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="D85" t="n">
+        <v>-7.48</v>
+      </c>
+      <c r="E85" t="n">
+        <v>-8.51</v>
+      </c>
+      <c r="F85" t="n">
+        <v>-16.63</v>
+      </c>
+      <c r="G85" t="n">
+        <v>-9.630000000000001</v>
+      </c>
+      <c r="H85" t="n">
+        <v>-7.48</v>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>17.57M</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>10.46M</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="3" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Leisure</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="D86" t="n">
+        <v>-7.66</v>
+      </c>
+      <c r="E86" t="n">
+        <v>-19.6</v>
+      </c>
+      <c r="F86" t="n">
+        <v>-22.09</v>
+      </c>
+      <c r="G86" t="n">
+        <v>-16.22</v>
+      </c>
+      <c r="H86" t="n">
+        <v>-7.66</v>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>80.29M</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>102.64M</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="3" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Internet Retail</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>7.64</v>
+      </c>
+      <c r="D87" t="n">
+        <v>-7.69</v>
+      </c>
+      <c r="E87" t="n">
+        <v>-16.26</v>
+      </c>
+      <c r="F87" t="n">
+        <v>-19.41</v>
+      </c>
+      <c r="G87" t="n">
+        <v>-28.94</v>
+      </c>
+      <c r="H87" t="n">
+        <v>-7.69</v>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>161.69M</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>136.02M</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="3" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Uranium</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="D88" t="n">
+        <v>-7.81</v>
+      </c>
+      <c r="E88" t="n">
+        <v>-23.03</v>
+      </c>
+      <c r="F88" t="n">
+        <v>16.24</v>
+      </c>
+      <c r="G88" t="n">
+        <v>50.09</v>
+      </c>
+      <c r="H88" t="n">
+        <v>-7.81</v>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>35.68M</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>29.08M</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="3" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Personal Services</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="D89" t="n">
+        <v>-7.86</v>
+      </c>
+      <c r="E89" t="n">
+        <v>-12.2</v>
+      </c>
+      <c r="F89" t="n">
+        <v>-18.27</v>
+      </c>
+      <c r="G89" t="n">
+        <v>-13.78</v>
+      </c>
+      <c r="H89" t="n">
+        <v>-7.86</v>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>17.82M</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>16.26M</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="3" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Auto Parts</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="D90" t="n">
+        <v>-8</v>
+      </c>
+      <c r="E90" t="n">
+        <v>-10.85</v>
+      </c>
+      <c r="F90" t="n">
+        <v>-9.09</v>
+      </c>
+      <c r="G90" t="n">
+        <v>-5.97</v>
+      </c>
+      <c r="H90" t="n">
+        <v>-8</v>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>53.60M</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>53.70M</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="3" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Auto &amp; Truck Dealerships</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="D91" t="n">
+        <v>-8.039999999999999</v>
+      </c>
+      <c r="E91" t="n">
+        <v>-14.43</v>
+      </c>
+      <c r="F91" t="n">
+        <v>-15.14</v>
+      </c>
+      <c r="G91" t="n">
+        <v>-1.45</v>
+      </c>
+      <c r="H91" t="n">
+        <v>-8.039999999999999</v>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>14.72M</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>8.91M</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="3" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Apparel Manufacturing</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="D92" t="n">
+        <v>-8.06</v>
+      </c>
+      <c r="E92" t="n">
+        <v>-10.17</v>
+      </c>
+      <c r="F92" t="n">
+        <v>-13.72</v>
+      </c>
+      <c r="G92" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H92" t="n">
+        <v>-8.06</v>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>29.13M</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>26.05M</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="3" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Information Technology Services</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>4.98</v>
+      </c>
+      <c r="D93" t="n">
+        <v>-8.279999999999999</v>
+      </c>
+      <c r="E93" t="n">
+        <v>-3.21</v>
+      </c>
+      <c r="F93" t="n">
+        <v>-2.38</v>
+      </c>
+      <c r="G93" t="n">
+        <v>10.82</v>
+      </c>
+      <c r="H93" t="n">
+        <v>-8.279999999999999</v>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>130.16M</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>91.68M</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="3" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Building Materials</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="D94" t="n">
+        <v>-8.300000000000001</v>
+      </c>
+      <c r="E94" t="n">
+        <v>-0.46</v>
+      </c>
+      <c r="F94" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="G94" t="n">
+        <v>21.69</v>
+      </c>
+      <c r="H94" t="n">
+        <v>-8.300000000000001</v>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>15.15M</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>10.52M</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="3" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Real Estate Services</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>5.44</v>
+      </c>
+      <c r="D95" t="n">
+        <v>-8.359999999999999</v>
+      </c>
+      <c r="E95" t="n">
+        <v>-13.16</v>
+      </c>
+      <c r="F95" t="n">
+        <v>-7.02</v>
+      </c>
+      <c r="G95" t="n">
+        <v>-28.1</v>
+      </c>
+      <c r="H95" t="n">
+        <v>-8.359999999999999</v>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>46.17M</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>36.14M</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="3" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Insurance Brokers</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="D96" t="n">
+        <v>-8.380000000000001</v>
+      </c>
+      <c r="E96" t="n">
+        <v>-6.41</v>
+      </c>
+      <c r="F96" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="G96" t="n">
+        <v>22.66</v>
+      </c>
+      <c r="H96" t="n">
+        <v>-8.380000000000001</v>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>20.20M</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>13.72M</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="3" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Grocery Stores</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="D97" t="n">
+        <v>-8.4</v>
+      </c>
+      <c r="E97" t="n">
+        <v>-4.74</v>
+      </c>
+      <c r="F97" t="n">
+        <v>-3.36</v>
+      </c>
+      <c r="G97" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="H97" t="n">
+        <v>-8.4</v>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>18.09M</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>13.59M</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="3" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Rental &amp; Leasing Services</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="D98" t="n">
+        <v>-8.460000000000001</v>
+      </c>
+      <c r="E98" t="n">
+        <v>-14.08</v>
+      </c>
+      <c r="F98" t="n">
+        <v>7.05</v>
+      </c>
+      <c r="G98" t="n">
+        <v>27</v>
+      </c>
+      <c r="H98" t="n">
+        <v>-8.460000000000001</v>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>20.38M</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>17.11M</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="3" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>REIT - Office</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="D99" t="n">
+        <v>-8.470000000000001</v>
+      </c>
+      <c r="E99" t="n">
+        <v>-4.63</v>
+      </c>
+      <c r="F99" t="n">
+        <v>-4.22</v>
+      </c>
+      <c r="G99" t="n">
+        <v>8.77</v>
+      </c>
+      <c r="H99" t="n">
+        <v>-8.470000000000001</v>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>20.93M</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>22.44M</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="3" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Restaurants</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="D100" t="n">
+        <v>-8.470000000000001</v>
+      </c>
+      <c r="E100" t="n">
+        <v>-5.79</v>
+      </c>
+      <c r="F100" t="n">
+        <v>-6.43</v>
+      </c>
+      <c r="G100" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="H100" t="n">
+        <v>-8.470000000000001</v>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>52.80M</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>46.03M</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="3" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Financial Data &amp; Stock Exchanges</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>4.73</v>
+      </c>
+      <c r="D101" t="n">
+        <v>-8.83</v>
+      </c>
+      <c r="E101" t="n">
+        <v>-7.83</v>
+      </c>
+      <c r="F101" t="n">
+        <v>-0.23</v>
+      </c>
+      <c r="G101" t="n">
+        <v>22.09</v>
+      </c>
+      <c r="H101" t="n">
+        <v>-8.83</v>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>8.13M</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>8.68M</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="3" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Drug Manufacturers - Specialty &amp; Generic</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="D102" t="n">
+        <v>-8.859999999999999</v>
+      </c>
+      <c r="E102" t="n">
+        <v>-10.32</v>
+      </c>
+      <c r="F102" t="n">
+        <v>-14.3</v>
+      </c>
+      <c r="G102" t="n">
+        <v>-16.67</v>
+      </c>
+      <c r="H102" t="n">
+        <v>-8.859999999999999</v>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>319.21M</t>
+        </is>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>250.79M</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="3" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Communication Equipment</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="D103" t="n">
+        <v>-8.94</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F103" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G103" t="n">
+        <v>16.01</v>
+      </c>
+      <c r="H103" t="n">
+        <v>-8.94</v>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>108.01M</t>
+        </is>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>-0.08</v>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>106.37M</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="3" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Semiconductors</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="D104" t="n">
+        <v>-8.98</v>
+      </c>
+      <c r="E104" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="F104" t="n">
+        <v>7.96</v>
+      </c>
+      <c r="G104" t="n">
+        <v>15.07</v>
+      </c>
+      <c r="H104" t="n">
+        <v>-8.98</v>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>288.37M</t>
+        </is>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>325.72M</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="3" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Specialty Retail</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="D105" t="n">
+        <v>-9.06</v>
+      </c>
+      <c r="E105" t="n">
+        <v>-10.47</v>
+      </c>
+      <c r="F105" t="n">
+        <v>-5.89</v>
+      </c>
+      <c r="G105" t="n">
+        <v>6.76</v>
+      </c>
+      <c r="H105" t="n">
+        <v>-9.06</v>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>94.16M</t>
+        </is>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>70.81M</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="3" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Medical Devices</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="D106" t="n">
+        <v>-9.08</v>
+      </c>
+      <c r="E106" t="n">
+        <v>-11.23</v>
+      </c>
+      <c r="F106" t="n">
+        <v>-11.95</v>
+      </c>
+      <c r="G106" t="n">
+        <v>-3.34</v>
+      </c>
+      <c r="H106" t="n">
+        <v>-9.08</v>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>122.63M</t>
+        </is>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>94.58M</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="3" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Software - Infrastructure</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>7.21</v>
+      </c>
+      <c r="D107" t="n">
+        <v>-9.199999999999999</v>
+      </c>
+      <c r="E107" t="n">
+        <v>-13.16</v>
+      </c>
+      <c r="F107" t="n">
+        <v>-3.74</v>
+      </c>
+      <c r="G107" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="H107" t="n">
+        <v>-9.199999999999999</v>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>314.89M</t>
+        </is>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>343.28M</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="3" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Specialty Chemicals</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="D108" t="n">
+        <v>-9.300000000000001</v>
+      </c>
+      <c r="E108" t="n">
+        <v>-4.88</v>
+      </c>
+      <c r="F108" t="n">
+        <v>-0.83</v>
+      </c>
+      <c r="G108" t="n">
+        <v>14.92</v>
+      </c>
+      <c r="H108" t="n">
+        <v>-9.300000000000001</v>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>55.20M</t>
+        </is>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>61.23M</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="3" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Education &amp; Training Services</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="D109" t="n">
+        <v>-9.34</v>
+      </c>
+      <c r="E109" t="n">
+        <v>-29.01</v>
+      </c>
+      <c r="F109" t="n">
+        <v>-38.51</v>
+      </c>
+      <c r="G109" t="n">
+        <v>-79.06999999999999</v>
+      </c>
+      <c r="H109" t="n">
+        <v>-9.34</v>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>119.17M</t>
+        </is>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>61.45M</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="3" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Mortgage Finance</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>-3.66</v>
+      </c>
+      <c r="D110" t="n">
+        <v>-9.380000000000001</v>
+      </c>
+      <c r="E110" t="n">
+        <v>-21.36</v>
+      </c>
+      <c r="F110" t="n">
+        <v>-20.17</v>
+      </c>
+      <c r="G110" t="n">
+        <v>-32.9</v>
+      </c>
+      <c r="H110" t="n">
+        <v>-9.380000000000001</v>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>15.07M</t>
+        </is>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>-1.79</v>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>24.67M</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="3" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Auto Manufacturers</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="D111" t="n">
+        <v>-9.539999999999999</v>
+      </c>
+      <c r="E111" t="n">
+        <v>-16.31</v>
+      </c>
+      <c r="F111" t="n">
+        <v>12.89</v>
+      </c>
+      <c r="G111" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="H111" t="n">
+        <v>-9.539999999999999</v>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>408.10M</t>
+        </is>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>412.23M</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="3" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Other Precious Metals &amp; Mining</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>-11.07</v>
+      </c>
+      <c r="D112" t="n">
+        <v>-9.56</v>
+      </c>
+      <c r="E112" t="n">
+        <v>-18.19</v>
+      </c>
+      <c r="F112" t="n">
+        <v>-23.25</v>
+      </c>
+      <c r="G112" t="n">
+        <v>-35.19</v>
+      </c>
+      <c r="H112" t="n">
+        <v>-9.56</v>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>9.00M</t>
+        </is>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>-0.48</v>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>7.18M</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="3" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Apparel Retail</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="D113" t="n">
+        <v>-9.56</v>
+      </c>
+      <c r="E113" t="n">
+        <v>-10.29</v>
+      </c>
+      <c r="F113" t="n">
+        <v>-12.94</v>
+      </c>
+      <c r="G113" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="H113" t="n">
+        <v>-9.56</v>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>53.08M</t>
+        </is>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>45.19M</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="3" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>REIT - Industrial</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D114" t="n">
+        <v>-9.789999999999999</v>
+      </c>
+      <c r="E114" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="F114" t="n">
+        <v>12.23</v>
+      </c>
+      <c r="G114" t="n">
+        <v>42.55</v>
+      </c>
+      <c r="H114" t="n">
+        <v>-9.789999999999999</v>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>17.51M</t>
+        </is>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>-1.29</v>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>15.37M</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="3" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Silver</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
+        <v>-3.8</v>
+      </c>
+      <c r="D115" t="n">
+        <v>-9.82</v>
+      </c>
+      <c r="E115" t="n">
+        <v>-20.7</v>
+      </c>
+      <c r="F115" t="n">
+        <v>-24.4</v>
+      </c>
+      <c r="G115" t="n">
+        <v>-35.49</v>
+      </c>
+      <c r="H115" t="n">
+        <v>-9.82</v>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>17.31M</t>
+        </is>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>16.09M</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="3" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Waste Management</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="D116" t="n">
+        <v>-9.83</v>
+      </c>
+      <c r="E116" t="n">
+        <v>-9.029999999999999</v>
+      </c>
+      <c r="F116" t="n">
+        <v>-0.47</v>
+      </c>
+      <c r="G116" t="n">
+        <v>25.66</v>
+      </c>
+      <c r="H116" t="n">
+        <v>-9.83</v>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>12.56M</t>
+        </is>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>10.39M</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="3" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Recreational Vehicles</t>
+        </is>
+      </c>
+      <c r="C117" t="n">
+        <v>4.71</v>
+      </c>
+      <c r="D117" t="n">
+        <v>-9.84</v>
+      </c>
+      <c r="E117" t="n">
+        <v>-9.960000000000001</v>
+      </c>
+      <c r="F117" t="n">
+        <v>-17.13</v>
+      </c>
+      <c r="G117" t="n">
+        <v>-8.73</v>
+      </c>
+      <c r="H117" t="n">
+        <v>-9.84</v>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>9.05M</t>
+        </is>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>7.79M</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="3" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Entertainment</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
+        <v>7.82</v>
+      </c>
+      <c r="D118" t="n">
+        <v>-9.859999999999999</v>
+      </c>
+      <c r="E118" t="n">
+        <v>-17.2</v>
+      </c>
+      <c r="F118" t="n">
+        <v>-15.56</v>
+      </c>
+      <c r="G118" t="n">
+        <v>-12.03</v>
+      </c>
+      <c r="H118" t="n">
+        <v>-9.859999999999999</v>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>168.88M</t>
+        </is>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>261.78M</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="3" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Home Improvement Retail</t>
+        </is>
+      </c>
+      <c r="C119" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="D119" t="n">
+        <v>-10.39</v>
+      </c>
+      <c r="E119" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F119" t="n">
+        <v>12.73</v>
+      </c>
+      <c r="G119" t="n">
+        <v>34.87</v>
+      </c>
+      <c r="H119" t="n">
+        <v>-10.39</v>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>13.71M</t>
+        </is>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>11.34M</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="3" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Engineering &amp; Construction</t>
+        </is>
+      </c>
+      <c r="C120" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="D120" t="n">
+        <v>-10.55</v>
+      </c>
+      <c r="E120" t="n">
+        <v>-6.47</v>
+      </c>
+      <c r="F120" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="G120" t="n">
+        <v>24.75</v>
+      </c>
+      <c r="H120" t="n">
+        <v>-10.55</v>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>17.20M</t>
+        </is>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>18.66M</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="3" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Industrial Distribution</t>
+        </is>
+      </c>
+      <c r="C121" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="D121" t="n">
+        <v>-10.57</v>
+      </c>
+      <c r="E121" t="n">
+        <v>-1.41</v>
+      </c>
+      <c r="F121" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="G121" t="n">
+        <v>25.81</v>
+      </c>
+      <c r="H121" t="n">
+        <v>-10.57</v>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>6.28M</t>
+        </is>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="L121" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>6.82M</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="3" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Footwear &amp; Accessories</t>
+        </is>
+      </c>
+      <c r="C122" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="D122" t="n">
+        <v>-10.72</v>
+      </c>
+      <c r="E122" t="n">
+        <v>-12.13</v>
+      </c>
+      <c r="F122" t="n">
+        <v>-14.42</v>
+      </c>
+      <c r="G122" t="n">
+        <v>7.05</v>
+      </c>
+      <c r="H122" t="n">
+        <v>-10.72</v>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>13.67M</t>
+        </is>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>13.01M</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="3" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Medical Instruments &amp; Supplies</t>
+        </is>
+      </c>
+      <c r="C123" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="D123" t="n">
+        <v>-10.79</v>
+      </c>
+      <c r="E123" t="n">
+        <v>-10.9</v>
+      </c>
+      <c r="F123" t="n">
+        <v>-8.94</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-0.12</v>
+      </c>
+      <c r="H123" t="n">
+        <v>-10.79</v>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>34.32M</t>
+        </is>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="L123" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>25.47M</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="3" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Furnishings, Fixtures &amp; Appliances</t>
+        </is>
+      </c>
+      <c r="C124" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="D124" t="n">
+        <v>-11.06</v>
+      </c>
+      <c r="E124" t="n">
+        <v>-12.88</v>
+      </c>
+      <c r="F124" t="n">
+        <v>-16.43</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-2.37</v>
+      </c>
+      <c r="H124" t="n">
+        <v>-11.06</v>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>22.79M</t>
+        </is>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="L124" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>16.26M</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="3" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Medical Care Facilities</t>
+        </is>
+      </c>
+      <c r="C125" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="D125" t="n">
+        <v>-11.28</v>
+      </c>
+      <c r="E125" t="n">
+        <v>-12.56</v>
+      </c>
+      <c r="F125" t="n">
+        <v>-23.78</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-7.39</v>
+      </c>
+      <c r="H125" t="n">
+        <v>-11.28</v>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>34.09M</t>
+        </is>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="L125" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>31.80M</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="3" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Scientific &amp; Technical Instruments</t>
+        </is>
+      </c>
+      <c r="C126" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="D126" t="n">
+        <v>-11.56</v>
+      </c>
+      <c r="E126" t="n">
+        <v>-11.21</v>
+      </c>
+      <c r="F126" t="n">
+        <v>-11.71</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-2.12</v>
+      </c>
+      <c r="H126" t="n">
+        <v>-11.56</v>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>24.27M</t>
+        </is>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="L126" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>27.25M</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="3" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Health Information Services</t>
+        </is>
+      </c>
+      <c r="C127" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="D127" t="n">
+        <v>-11.91</v>
+      </c>
+      <c r="E127" t="n">
+        <v>-25.87</v>
+      </c>
+      <c r="F127" t="n">
+        <v>-27.96</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-38.82</v>
+      </c>
+      <c r="H127" t="n">
+        <v>-11.91</v>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>54.15M</t>
+        </is>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="L127" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>47.77M</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="3" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Consulting Services</t>
+        </is>
+      </c>
+      <c r="C128" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="D128" t="n">
+        <v>-12.25</v>
+      </c>
+      <c r="E128" t="n">
+        <v>-9.210000000000001</v>
+      </c>
+      <c r="F128" t="n">
+        <v>-2.73</v>
+      </c>
+      <c r="G128" t="n">
+        <v>18.27</v>
+      </c>
+      <c r="H128" t="n">
+        <v>-12.25</v>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>10.93M</t>
+        </is>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="L128" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>13.09M</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="3" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Staffing &amp; Employment Services</t>
+        </is>
+      </c>
+      <c r="C129" t="n">
+        <v>-0.5600000000000001</v>
+      </c>
+      <c r="D129" t="n">
+        <v>-12.37</v>
+      </c>
+      <c r="E129" t="n">
+        <v>-8.07</v>
+      </c>
+      <c r="F129" t="n">
+        <v>-2.76</v>
+      </c>
+      <c r="G129" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="H129" t="n">
+        <v>-12.37</v>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>24.13M</t>
+        </is>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="L129" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>15.55M</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="3" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Gambling</t>
+        </is>
+      </c>
+      <c r="C130" t="n">
+        <v>11.35</v>
+      </c>
+      <c r="D130" t="n">
+        <v>-12.72</v>
+      </c>
+      <c r="E130" t="n">
+        <v>-38.54</v>
+      </c>
+      <c r="F130" t="n">
+        <v>-27.39</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-37.06</v>
+      </c>
+      <c r="H130" t="n">
+        <v>-12.72</v>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>32.76M</t>
+        </is>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="L130" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>40.50M</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="3" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Utilities - Independent Power Producers</t>
+        </is>
+      </c>
+      <c r="C131" t="n">
+        <v>-0.38</v>
+      </c>
+      <c r="D131" t="n">
+        <v>-12.8</v>
+      </c>
+      <c r="E131" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="F131" t="n">
+        <v>18.59</v>
+      </c>
+      <c r="G131" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="H131" t="n">
+        <v>-12.8</v>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>7.17M</t>
+        </is>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="L131" t="n">
+        <v>-1.41</v>
+      </c>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>8.58M</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="3" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>REIT - Specialty</t>
+        </is>
+      </c>
+      <c r="C132" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="D132" t="n">
+        <v>-12.85</v>
+      </c>
+      <c r="E132" t="n">
+        <v>-6.84</v>
+      </c>
+      <c r="F132" t="n">
+        <v>-6.44</v>
+      </c>
+      <c r="G132" t="n">
+        <v>7.79</v>
+      </c>
+      <c r="H132" t="n">
+        <v>-12.85</v>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>21.33M</t>
+        </is>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="L132" t="n">
+        <v>-0.68</v>
+      </c>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>20.47M</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="3" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Utilities - Regulated Water</t>
+        </is>
+      </c>
+      <c r="C133" t="n">
+        <v>1</v>
+      </c>
+      <c r="D133" t="n">
+        <v>-13.16</v>
+      </c>
+      <c r="E133" t="n">
+        <v>-4.47</v>
+      </c>
+      <c r="F133" t="n">
+        <v>-6.02</v>
+      </c>
+      <c r="G133" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H133" t="n">
+        <v>-13.16</v>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>6.36M</t>
+        </is>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="L133" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>6.70M</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="3" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Diagnostics &amp; Research</t>
+        </is>
+      </c>
+      <c r="C134" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="D134" t="n">
+        <v>-13.21</v>
+      </c>
+      <c r="E134" t="n">
+        <v>-13.52</v>
+      </c>
+      <c r="F134" t="n">
+        <v>-10.2</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-0.98</v>
+      </c>
+      <c r="H134" t="n">
+        <v>-13.21</v>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>93.08M</t>
+        </is>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="L134" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>74.12M</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="3" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Pollution &amp; Treatment Controls</t>
+        </is>
+      </c>
+      <c r="C135" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="D135" t="n">
+        <v>-13.37</v>
+      </c>
+      <c r="E135" t="n">
+        <v>-20.02</v>
+      </c>
+      <c r="F135" t="n">
+        <v>-12.43</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-1.74</v>
+      </c>
+      <c r="H135" t="n">
+        <v>-13.37</v>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>8.51M</t>
+        </is>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="L135" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>3.62M</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="3" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Trucking</t>
+        </is>
+      </c>
+      <c r="C136" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="D136" t="n">
+        <v>-14.18</v>
+      </c>
+      <c r="E136" t="n">
+        <v>-11.46</v>
+      </c>
+      <c r="F136" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="G136" t="n">
+        <v>30.78</v>
+      </c>
+      <c r="H136" t="n">
+        <v>-14.18</v>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>11.80M</t>
+        </is>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="L136" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>11.90M</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="3" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Semiconductor Equipment &amp; Materials</t>
+        </is>
+      </c>
+      <c r="C137" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="D137" t="n">
+        <v>-14.29</v>
+      </c>
+      <c r="E137" t="n">
+        <v>-8.93</v>
+      </c>
+      <c r="F137" t="n">
+        <v>-7.16</v>
+      </c>
+      <c r="G137" t="n">
+        <v>19.08</v>
+      </c>
+      <c r="H137" t="n">
+        <v>-14.29</v>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>29.40M</t>
+        </is>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="L137" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>25.51M</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="3" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Software - Application</t>
+        </is>
+      </c>
+      <c r="C138" t="n">
+        <v>8.029999999999999</v>
+      </c>
+      <c r="D138" t="n">
+        <v>-14.35</v>
+      </c>
+      <c r="E138" t="n">
+        <v>-24.69</v>
+      </c>
+      <c r="F138" t="n">
+        <v>-16.15</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-17.2</v>
+      </c>
+      <c r="H138" t="n">
+        <v>-14.35</v>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>429.96M</t>
+        </is>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="L138" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>518.33M</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="3" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Utilities - Renewable</t>
+        </is>
+      </c>
+      <c r="C139" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="D139" t="n">
+        <v>-14.48</v>
+      </c>
+      <c r="E139" t="n">
+        <v>-19.29</v>
+      </c>
+      <c r="F139" t="n">
+        <v>-16.34</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-29.13</v>
+      </c>
+      <c r="H139" t="n">
+        <v>-14.48</v>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>10.74M</t>
+        </is>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="L139" t="n">
+        <v>-0.61</v>
+      </c>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>8.80M</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="3" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Residential Construction</t>
+        </is>
+      </c>
+      <c r="C140" t="n">
+        <v>-0.08</v>
+      </c>
+      <c r="D140" t="n">
+        <v>-14.98</v>
+      </c>
+      <c r="E140" t="n">
+        <v>-0.59</v>
+      </c>
+      <c r="F140" t="n">
+        <v>-6.08</v>
+      </c>
+      <c r="G140" t="n">
+        <v>14.91</v>
+      </c>
+      <c r="H140" t="n">
+        <v>-14.98</v>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>17.55M</t>
+        </is>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="L140" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>23.25M</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="3" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Electronic Gaming &amp; Multimedia</t>
+        </is>
+      </c>
+      <c r="C141" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="D141" t="n">
+        <v>-15.02</v>
+      </c>
+      <c r="E141" t="n">
+        <v>-33.68</v>
+      </c>
+      <c r="F141" t="n">
+        <v>-26.65</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-30.89</v>
+      </c>
+      <c r="H141" t="n">
+        <v>-15.02</v>
+      </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>115.01M</t>
+        </is>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="L141" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>111.55M</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="3" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Electrical Equipment &amp; Parts</t>
+        </is>
+      </c>
+      <c r="C142" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="D142" t="n">
+        <v>-15.12</v>
+      </c>
+      <c r="E142" t="n">
+        <v>-24.95</v>
+      </c>
+      <c r="F142" t="n">
+        <v>-12.18</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-30.27</v>
+      </c>
+      <c r="H142" t="n">
+        <v>-15.12</v>
+      </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>88.22M</t>
+        </is>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="L142" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>77.29M</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="3" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Building Products &amp; Equipment</t>
+        </is>
+      </c>
+      <c r="C143" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="D143" t="n">
+        <v>-15.21</v>
+      </c>
+      <c r="E143" t="n">
+        <v>-5.34</v>
+      </c>
+      <c r="F143" t="n">
+        <v>-4.56</v>
+      </c>
+      <c r="G143" t="n">
+        <v>15.72</v>
+      </c>
+      <c r="H143" t="n">
+        <v>-15.21</v>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>24.24M</t>
+        </is>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="L143" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>24.62M</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="3" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Biotechnology</t>
+        </is>
+      </c>
+      <c r="C144" t="n">
+        <v>6.79</v>
+      </c>
+      <c r="D144" t="n">
+        <v>-15.48</v>
+      </c>
+      <c r="E144" t="n">
+        <v>-26.71</v>
+      </c>
+      <c r="F144" t="n">
+        <v>-28.16</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-32.21</v>
+      </c>
+      <c r="H144" t="n">
+        <v>-15.48</v>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>809.00M</t>
+        </is>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="L144" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>582.86M</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="3" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Solar</t>
+        </is>
+      </c>
+      <c r="C145" t="n">
+        <v>9.43</v>
+      </c>
+      <c r="D145" t="n">
+        <v>-19.23</v>
+      </c>
+      <c r="E145" t="n">
+        <v>-41.9</v>
+      </c>
+      <c r="F145" t="n">
+        <v>-29.98</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-42.76</v>
+      </c>
+      <c r="H145" t="n">
+        <v>-19.23</v>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>30.53M</t>
+        </is>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="L145" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>29.23M</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>